--- a/raw_data/20200818_saline/20200818_Sensor2_Test_4.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_4.xlsx
@@ -1,1988 +1,2404 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E32794-91B7-4437-BBFA-F473774C9692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>3069.561100</v>
+        <v>3069.5610999999999</v>
       </c>
       <c r="B2" s="1">
-        <v>0.852656</v>
+        <v>0.85265599999999997</v>
       </c>
       <c r="C2" s="1">
-        <v>1242.390000</v>
+        <v>1242.3900000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-306.296000</v>
+        <v>-306.29599999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>3079.899201</v>
+        <v>3079.8992010000002</v>
       </c>
       <c r="G2" s="1">
-        <v>0.855528</v>
+        <v>0.85552799999999996</v>
       </c>
       <c r="H2" s="1">
-        <v>1268.320000</v>
+        <v>1268.32</v>
       </c>
       <c r="I2" s="1">
-        <v>-265.234000</v>
+        <v>-265.23399999999998</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>3090.334532</v>
+        <v>3090.3345319999999</v>
       </c>
       <c r="L2" s="1">
-        <v>0.858426</v>
+        <v>0.85842600000000002</v>
       </c>
       <c r="M2" s="1">
-        <v>1304.040000</v>
+        <v>1304.04</v>
       </c>
       <c r="N2" s="1">
-        <v>-202.792000</v>
+        <v>-202.792</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>3100.800144</v>
+        <v>3100.8001439999998</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.861333</v>
+        <v>0.86133300000000002</v>
       </c>
       <c r="R2" s="1">
-        <v>1316.290000</v>
+        <v>1316.29</v>
       </c>
       <c r="S2" s="1">
-        <v>-184.954000</v>
+        <v>-184.95400000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>3111.358000</v>
+        <v>3111.3580000000002</v>
       </c>
       <c r="V2" s="1">
-        <v>0.864266</v>
+        <v>0.86426599999999998</v>
       </c>
       <c r="W2" s="1">
-        <v>1329.480000</v>
+        <v>1329.48</v>
       </c>
       <c r="X2" s="1">
-        <v>-171.359000</v>
+        <v>-171.35900000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>3121.784362</v>
+        <v>3121.7843619999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>0.867162</v>
+        <v>0.86716199999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>1346.910000</v>
+        <v>1346.91</v>
       </c>
       <c r="AC2" s="1">
-        <v>-169.424000</v>
+        <v>-169.42400000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>3132.647768</v>
+        <v>3132.6477679999998</v>
       </c>
       <c r="AF2" s="1">
-        <v>0.870180</v>
+        <v>0.87017999999999995</v>
       </c>
       <c r="AG2" s="1">
-        <v>1359.700000</v>
+        <v>1359.7</v>
       </c>
       <c r="AH2" s="1">
-        <v>-179.277000</v>
+        <v>-179.27699999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>3142.952622</v>
+        <v>3142.9526219999998</v>
       </c>
       <c r="AK2" s="1">
-        <v>0.873042</v>
+        <v>0.87304199999999998</v>
       </c>
       <c r="AL2" s="1">
-        <v>1380.340000</v>
+        <v>1380.34</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.505000</v>
+        <v>-209.505</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>3153.219835</v>
+        <v>3153.2198349999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>0.875894</v>
+        <v>0.87589399999999995</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1401.850000</v>
+        <v>1401.85</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.561000</v>
+        <v>-253.56100000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>3164.168002</v>
+        <v>3164.1680019999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>0.878936</v>
+        <v>0.87893600000000005</v>
       </c>
       <c r="AV2" s="1">
-        <v>1426.130000</v>
+        <v>1426.13</v>
       </c>
       <c r="AW2" s="1">
-        <v>-314.021000</v>
+        <v>-314.02100000000002</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>3174.952259</v>
+        <v>3174.9522590000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>0.881931</v>
+        <v>0.88193100000000002</v>
       </c>
       <c r="BA2" s="1">
-        <v>1445.180000</v>
+        <v>1445.18</v>
       </c>
       <c r="BB2" s="1">
-        <v>-366.640000</v>
+        <v>-366.64</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>3185.889798</v>
+        <v>3185.8897980000002</v>
       </c>
       <c r="BE2" s="1">
-        <v>0.884969</v>
+        <v>0.88496900000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1528.700000</v>
+        <v>1528.7</v>
       </c>
       <c r="BG2" s="1">
-        <v>-618.060000</v>
+        <v>-618.05999999999995</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>3196.843981</v>
       </c>
       <c r="BJ2" s="1">
-        <v>0.888012</v>
+        <v>0.88801200000000002</v>
       </c>
       <c r="BK2" s="1">
-        <v>1680.060000</v>
+        <v>1680.06</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1071.690000</v>
+        <v>-1071.69</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>3207.554058</v>
+        <v>3207.5540580000002</v>
       </c>
       <c r="BO2" s="1">
-        <v>0.890987</v>
+        <v>0.89098699999999997</v>
       </c>
       <c r="BP2" s="1">
-        <v>1971.200000</v>
+        <v>1971.2</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1862.810000</v>
+        <v>-1862.81</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>3218.410986</v>
+        <v>3218.4109859999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>0.894003</v>
+        <v>0.89400299999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>2359.340000</v>
+        <v>2359.34</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2780.550000</v>
+        <v>-2780.55</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>3229.534270</v>
+        <v>3229.5342700000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>0.897093</v>
+        <v>0.89709300000000003</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2841.770000</v>
+        <v>2841.77</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3787.780000</v>
+        <v>-3787.78</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>3240.468077</v>
       </c>
       <c r="CD2" s="1">
-        <v>0.900130</v>
+        <v>0.90012999999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>4274.800000</v>
+        <v>4274.8</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6223.550000</v>
+        <v>-6223.55</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>3070.254990</v>
+        <v>3070.2549899999999</v>
       </c>
       <c r="B3" s="1">
-        <v>0.852849</v>
+        <v>0.85284899999999997</v>
       </c>
       <c r="C3" s="1">
-        <v>1242.690000</v>
+        <v>1242.69</v>
       </c>
       <c r="D3" s="1">
-        <v>-306.335000</v>
+        <v>-306.33499999999998</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>3080.242465</v>
+        <v>3080.2424649999998</v>
       </c>
       <c r="G3" s="1">
-        <v>0.855623</v>
+        <v>0.85562300000000002</v>
       </c>
       <c r="H3" s="1">
-        <v>1268.010000</v>
+        <v>1268.01</v>
       </c>
       <c r="I3" s="1">
-        <v>-264.739000</v>
+        <v>-264.73899999999998</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>3090.669829</v>
+        <v>3090.6698289999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0.858519</v>
+        <v>0.85851900000000003</v>
       </c>
       <c r="M3" s="1">
-        <v>1303.990000</v>
+        <v>1303.99</v>
       </c>
       <c r="N3" s="1">
-        <v>-203.089000</v>
+        <v>-203.089</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>3101.164716</v>
+        <v>3101.1647160000002</v>
       </c>
       <c r="Q3" s="1">
-        <v>0.861435</v>
+        <v>0.86143499999999995</v>
       </c>
       <c r="R3" s="1">
-        <v>1316.270000</v>
+        <v>1316.27</v>
       </c>
       <c r="S3" s="1">
-        <v>-184.922000</v>
+        <v>-184.922</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>3112.022163</v>
+        <v>3112.0221630000001</v>
       </c>
       <c r="V3" s="1">
-        <v>0.864451</v>
+        <v>0.86445099999999997</v>
       </c>
       <c r="W3" s="1">
-        <v>1329.460000</v>
+        <v>1329.46</v>
       </c>
       <c r="X3" s="1">
-        <v>-171.405000</v>
+        <v>-171.405</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>3122.464908</v>
+        <v>3122.4649079999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>0.867351</v>
+        <v>0.86735099999999998</v>
       </c>
       <c r="AB3" s="1">
-        <v>1346.940000</v>
+        <v>1346.94</v>
       </c>
       <c r="AC3" s="1">
-        <v>-169.460000</v>
+        <v>-169.46</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>3133.078269</v>
+        <v>3133.0782690000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>0.870300</v>
+        <v>0.87029999999999996</v>
       </c>
       <c r="AG3" s="1">
-        <v>1359.690000</v>
+        <v>1359.69</v>
       </c>
       <c r="AH3" s="1">
-        <v>-179.258000</v>
+        <v>-179.25800000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>3143.301807</v>
+        <v>3143.3018069999998</v>
       </c>
       <c r="AK3" s="1">
         <v>0.873139</v>
       </c>
       <c r="AL3" s="1">
-        <v>1380.340000</v>
+        <v>1380.34</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.482000</v>
+        <v>-209.482</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>3153.578449</v>
+        <v>3153.5784490000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>0.875994</v>
+        <v>0.87599400000000005</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1401.840000</v>
+        <v>1401.84</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.593000</v>
+        <v>-253.59299999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>3164.559378</v>
+        <v>3164.5593779999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>0.879044</v>
+        <v>0.87904400000000005</v>
       </c>
       <c r="AV3" s="1">
-        <v>1426.140000</v>
+        <v>1426.14</v>
       </c>
       <c r="AW3" s="1">
-        <v>-314.042000</v>
+        <v>-314.04199999999997</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>3175.413300</v>
+        <v>3175.4133000000002</v>
       </c>
       <c r="AZ3" s="1">
-        <v>0.882059</v>
+        <v>0.88205900000000004</v>
       </c>
       <c r="BA3" s="1">
-        <v>1445.190000</v>
+        <v>1445.19</v>
       </c>
       <c r="BB3" s="1">
-        <v>-366.575000</v>
+        <v>-366.57499999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>3186.306965</v>
+        <v>3186.3069650000002</v>
       </c>
       <c r="BE3" s="1">
-        <v>0.885085</v>
+        <v>0.88508500000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1528.730000</v>
+        <v>1528.73</v>
       </c>
       <c r="BG3" s="1">
-        <v>-618.051000</v>
+        <v>-618.05100000000004</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>3196.958023</v>
+        <v>3196.9580230000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>0.888044</v>
+        <v>0.88804400000000006</v>
       </c>
       <c r="BK3" s="1">
-        <v>1680.040000</v>
+        <v>1680.04</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1071.720000</v>
+        <v>-1071.72</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>3207.678057</v>
+        <v>3207.6780570000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>0.891022</v>
+        <v>0.89102199999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1970.680000</v>
+        <v>1970.68</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1862.950000</v>
+        <v>-1862.95</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>3218.906491</v>
+        <v>3218.9064910000002</v>
       </c>
       <c r="BT3" s="1">
-        <v>0.894141</v>
+        <v>0.89414099999999996</v>
       </c>
       <c r="BU3" s="1">
-        <v>2359.450000</v>
+        <v>2359.4499999999998</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2781.130000</v>
+        <v>-2781.13</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>3230.001003</v>
+        <v>3230.0010029999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>0.897223</v>
+        <v>0.89722299999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2841.360000</v>
+        <v>2841.36</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3788.100000</v>
+        <v>-3788.1</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>3241.063008</v>
+        <v>3241.0630080000001</v>
       </c>
       <c r="CD3" s="1">
-        <v>0.900295</v>
+        <v>0.90029499999999996</v>
       </c>
       <c r="CE3" s="1">
-        <v>4279.240000</v>
+        <v>4279.24</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6243.720000</v>
+        <v>-6243.72</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>3070.594918</v>
+        <v>3070.5949179999998</v>
       </c>
       <c r="B4" s="1">
-        <v>0.852943</v>
+        <v>0.85294300000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1242.470000</v>
+        <v>1242.47</v>
       </c>
       <c r="D4" s="1">
-        <v>-306.539000</v>
+        <v>-306.53899999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>3080.591617</v>
       </c>
       <c r="G4" s="1">
-        <v>0.855720</v>
+        <v>0.85572000000000004</v>
       </c>
       <c r="H4" s="1">
-        <v>1268.200000</v>
+        <v>1268.2</v>
       </c>
       <c r="I4" s="1">
-        <v>-264.839000</v>
+        <v>-264.839</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>3091.016067</v>
       </c>
       <c r="L4" s="1">
-        <v>0.858616</v>
+        <v>0.85861600000000005</v>
       </c>
       <c r="M4" s="1">
-        <v>1303.920000</v>
+        <v>1303.92</v>
       </c>
       <c r="N4" s="1">
-        <v>-202.900000</v>
+        <v>-202.9</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>3101.826869</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.861619</v>
+        <v>0.86161900000000002</v>
       </c>
       <c r="R4" s="1">
-        <v>1316.230000</v>
+        <v>1316.23</v>
       </c>
       <c r="S4" s="1">
-        <v>-184.827000</v>
+        <v>-184.827</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>3112.406998</v>
+        <v>3112.4069979999999</v>
       </c>
       <c r="V4" s="1">
-        <v>0.864557</v>
+        <v>0.86455700000000002</v>
       </c>
       <c r="W4" s="1">
-        <v>1329.420000</v>
+        <v>1329.42</v>
       </c>
       <c r="X4" s="1">
-        <v>-171.427000</v>
+        <v>-171.42699999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>3122.867626</v>
+        <v>3122.8676260000002</v>
       </c>
       <c r="AA4" s="1">
-        <v>0.867463</v>
+        <v>0.86746299999999998</v>
       </c>
       <c r="AB4" s="1">
-        <v>1346.880000</v>
+        <v>1346.88</v>
       </c>
       <c r="AC4" s="1">
-        <v>-169.589000</v>
+        <v>-169.589</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>3133.423484</v>
+        <v>3133.4234839999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>0.870395</v>
+        <v>0.87039500000000003</v>
       </c>
       <c r="AG4" s="1">
-        <v>1359.680000</v>
+        <v>1359.68</v>
       </c>
       <c r="AH4" s="1">
-        <v>-179.335000</v>
+        <v>-179.33500000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>3143.650526</v>
+        <v>3143.6505259999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>0.873236</v>
+        <v>0.87323600000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1380.360000</v>
+        <v>1380.36</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.463000</v>
+        <v>-209.46299999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>3153.941487</v>
+        <v>3153.9414870000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>0.876095</v>
+        <v>0.87609499999999996</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1401.850000</v>
+        <v>1401.85</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.567000</v>
+        <v>-253.56700000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>3164.976977</v>
+        <v>3164.9769769999998</v>
       </c>
       <c r="AU4" s="1">
-        <v>0.879160</v>
+        <v>0.87916000000000005</v>
       </c>
       <c r="AV4" s="1">
-        <v>1426.130000</v>
+        <v>1426.13</v>
       </c>
       <c r="AW4" s="1">
-        <v>-314.014000</v>
+        <v>-314.01400000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>3176.039250</v>
+        <v>3176.0392499999998</v>
       </c>
       <c r="AZ4" s="1">
-        <v>0.882233</v>
+        <v>0.88223300000000004</v>
       </c>
       <c r="BA4" s="1">
-        <v>1445.170000</v>
+        <v>1445.17</v>
       </c>
       <c r="BB4" s="1">
-        <v>-366.593000</v>
+        <v>-366.59300000000002</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>3186.626357</v>
+        <v>3186.6263570000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>0.885174</v>
+        <v>0.88517400000000002</v>
       </c>
       <c r="BF4" s="1">
-        <v>1528.700000</v>
+        <v>1528.7</v>
       </c>
       <c r="BG4" s="1">
-        <v>-618.061000</v>
+        <v>-618.06100000000004</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>3197.320631</v>
       </c>
       <c r="BJ4" s="1">
-        <v>0.888145</v>
+        <v>0.88814499999999996</v>
       </c>
       <c r="BK4" s="1">
-        <v>1679.940000</v>
+        <v>1679.94</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1071.690000</v>
+        <v>-1071.69</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>3208.110074</v>
+        <v>3208.1100740000002</v>
       </c>
       <c r="BO4" s="1">
-        <v>0.891142</v>
+        <v>0.89114199999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1970.760000</v>
+        <v>1970.76</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1863.150000</v>
+        <v>-1863.15</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>3219.318206</v>
+        <v>3219.3182059999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>0.894255</v>
+        <v>0.89425500000000002</v>
       </c>
       <c r="BU4" s="1">
-        <v>2359.140000</v>
+        <v>2359.14</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2781.710000</v>
+        <v>-2781.71</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>3230.450875</v>
       </c>
       <c r="BY4" s="1">
-        <v>0.897347</v>
+        <v>0.89734700000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2842.140000</v>
+        <v>2842.14</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3788.100000</v>
+        <v>-3788.1</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>3241.598461</v>
       </c>
       <c r="CD4" s="1">
-        <v>0.900444</v>
+        <v>0.90044400000000002</v>
       </c>
       <c r="CE4" s="1">
-        <v>4288.180000</v>
+        <v>4288.18</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6222.720000</v>
+        <v>-6222.72</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>3070.935997</v>
       </c>
       <c r="B5" s="1">
-        <v>0.853038</v>
+        <v>0.85303799999999996</v>
       </c>
       <c r="C5" s="1">
-        <v>1242.670000</v>
+        <v>1242.67</v>
       </c>
       <c r="D5" s="1">
-        <v>-306.391000</v>
+        <v>-306.39100000000002</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>3081.241873</v>
+        <v>3081.2418729999999</v>
       </c>
       <c r="G5" s="1">
-        <v>0.855901</v>
+        <v>0.85590100000000002</v>
       </c>
       <c r="H5" s="1">
-        <v>1268.420000</v>
+        <v>1268.42</v>
       </c>
       <c r="I5" s="1">
-        <v>-265.068000</v>
+        <v>-265.06799999999998</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>3091.674722</v>
+        <v>3091.6747220000002</v>
       </c>
       <c r="L5" s="1">
-        <v>0.858799</v>
+        <v>0.85879899999999998</v>
       </c>
       <c r="M5" s="1">
-        <v>1303.970000</v>
+        <v>1303.97</v>
       </c>
       <c r="N5" s="1">
-        <v>-202.728000</v>
+        <v>-202.72800000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>3102.209253</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.861725</v>
+        <v>0.86172499999999996</v>
       </c>
       <c r="R5" s="1">
-        <v>1316.260000</v>
+        <v>1316.26</v>
       </c>
       <c r="S5" s="1">
-        <v>-184.798000</v>
+        <v>-184.798</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>3112.749238</v>
+        <v>3112.7492379999999</v>
       </c>
       <c r="V5" s="1">
         <v>0.864653</v>
       </c>
       <c r="W5" s="1">
-        <v>1329.530000</v>
+        <v>1329.53</v>
       </c>
       <c r="X5" s="1">
-        <v>-171.356000</v>
+        <v>-171.35599999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>3123.214824</v>
+        <v>3123.2148240000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>0.867560</v>
+        <v>0.86756</v>
       </c>
       <c r="AB5" s="1">
-        <v>1346.810000</v>
+        <v>1346.81</v>
       </c>
       <c r="AC5" s="1">
-        <v>-169.273000</v>
+        <v>-169.273</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>3133.764267</v>
       </c>
       <c r="AF5" s="1">
-        <v>0.870490</v>
+        <v>0.87048999999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1359.690000</v>
+        <v>1359.69</v>
       </c>
       <c r="AH5" s="1">
-        <v>-179.325000</v>
+        <v>-179.32499999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>3144.068621</v>
+        <v>3144.0686209999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>0.873352</v>
+        <v>0.87335200000000002</v>
       </c>
       <c r="AL5" s="1">
-        <v>1380.320000</v>
+        <v>1380.32</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.479000</v>
+        <v>-209.47900000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>3154.350719</v>
       </c>
       <c r="AP5" s="1">
-        <v>0.876209</v>
+        <v>0.87620900000000002</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1401.840000</v>
+        <v>1401.84</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.586000</v>
+        <v>-253.58600000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>3165.287474</v>
+        <v>3165.2874740000002</v>
       </c>
       <c r="AU5" s="1">
         <v>0.879247</v>
       </c>
       <c r="AV5" s="1">
-        <v>1426.120000</v>
+        <v>1426.12</v>
       </c>
       <c r="AW5" s="1">
-        <v>-314.016000</v>
+        <v>-314.01600000000002</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>3176.397858</v>
+        <v>3176.3978579999998</v>
       </c>
       <c r="AZ5" s="1">
-        <v>0.882333</v>
+        <v>0.88233300000000003</v>
       </c>
       <c r="BA5" s="1">
-        <v>1445.180000</v>
+        <v>1445.18</v>
       </c>
       <c r="BB5" s="1">
-        <v>-366.576000</v>
+        <v>-366.57600000000002</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>3186.985988</v>
+        <v>3186.9859879999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>0.885274</v>
+        <v>0.88527400000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1528.670000</v>
+        <v>1528.67</v>
       </c>
       <c r="BG5" s="1">
-        <v>-618.064000</v>
+        <v>-618.06399999999996</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>3197.697062</v>
+        <v>3197.6970620000002</v>
       </c>
       <c r="BJ5" s="1">
-        <v>0.888249</v>
+        <v>0.88824899999999996</v>
       </c>
       <c r="BK5" s="1">
-        <v>1680.010000</v>
+        <v>1680.01</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1071.770000</v>
+        <v>-1071.77</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>3208.503935</v>
+        <v>3208.5039350000002</v>
       </c>
       <c r="BO5" s="1">
-        <v>0.891251</v>
+        <v>0.89125100000000002</v>
       </c>
       <c r="BP5" s="1">
-        <v>1970.650000</v>
+        <v>1970.65</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1863.090000</v>
+        <v>-1863.09</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>3219.751674</v>
+        <v>3219.7516740000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>0.894375</v>
+        <v>0.89437500000000003</v>
       </c>
       <c r="BU5" s="1">
-        <v>2358.990000</v>
+        <v>2358.9899999999998</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2782.240000</v>
+        <v>-2782.24</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>3230.878458</v>
+        <v>3230.8784580000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>0.897466</v>
+        <v>0.89746599999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2841.830000</v>
+        <v>2841.83</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3787.390000</v>
+        <v>-3787.39</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>3242.142076</v>
+        <v>3242.1420760000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>0.900595</v>
+        <v>0.90059500000000003</v>
       </c>
       <c r="CE5" s="1">
-        <v>4267.410000</v>
+        <v>4267.41</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6234.260000</v>
+        <v>-6234.26</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>3071.587254</v>
       </c>
       <c r="B6" s="1">
-        <v>0.853219</v>
+        <v>0.85321899999999995</v>
       </c>
       <c r="C6" s="1">
-        <v>1242.280000</v>
+        <v>1242.28</v>
       </c>
       <c r="D6" s="1">
-        <v>-306.513000</v>
+        <v>-306.51299999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>3081.627264</v>
+        <v>3081.6272640000002</v>
       </c>
       <c r="G6" s="1">
-        <v>0.856008</v>
+        <v>0.85600799999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>1268.500000</v>
+        <v>1268.5</v>
       </c>
       <c r="I6" s="1">
-        <v>-264.640000</v>
+        <v>-264.64</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>3092.053698</v>
+        <v>3092.0536980000002</v>
       </c>
       <c r="L6" s="1">
         <v>0.858904</v>
       </c>
       <c r="M6" s="1">
-        <v>1304.130000</v>
+        <v>1304.1300000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-203.181000</v>
+        <v>-203.18100000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>3102.558741</v>
+        <v>3102.5587409999998</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.861822</v>
+        <v>0.86182199999999998</v>
       </c>
       <c r="R6" s="1">
-        <v>1316.300000</v>
+        <v>1316.3</v>
       </c>
       <c r="S6" s="1">
-        <v>-184.872000</v>
+        <v>-184.87200000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>3113.093957</v>
       </c>
       <c r="V6" s="1">
-        <v>0.864748</v>
+        <v>0.86474799999999996</v>
       </c>
       <c r="W6" s="1">
-        <v>1329.440000</v>
+        <v>1329.44</v>
       </c>
       <c r="X6" s="1">
-        <v>-171.277000</v>
+        <v>-171.27699999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>3123.562552</v>
+        <v>3123.5625519999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>0.867656</v>
+        <v>0.86765599999999998</v>
       </c>
       <c r="AB6" s="1">
-        <v>1346.820000</v>
+        <v>1346.82</v>
       </c>
       <c r="AC6" s="1">
-        <v>-169.415000</v>
+        <v>-169.41499999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>3134.186363</v>
+        <v>3134.1863629999998</v>
       </c>
       <c r="AF6" s="1">
-        <v>0.870607</v>
+        <v>0.87060700000000002</v>
       </c>
       <c r="AG6" s="1">
-        <v>1359.690000</v>
+        <v>1359.69</v>
       </c>
       <c r="AH6" s="1">
-        <v>-179.257000</v>
+        <v>-179.25700000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>3144.348402</v>
+        <v>3144.3484020000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>0.873430</v>
+        <v>0.87343000000000004</v>
       </c>
       <c r="AL6" s="1">
-        <v>1380.350000</v>
+        <v>1380.35</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.466000</v>
+        <v>-209.46600000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>3154.659232</v>
       </c>
       <c r="AP6" s="1">
-        <v>0.876294</v>
+        <v>0.87629400000000002</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1401.850000</v>
+        <v>1401.85</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.616000</v>
+        <v>-253.61600000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>3165.649554</v>
+        <v>3165.6495540000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>0.879347</v>
+        <v>0.87934699999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1426.110000</v>
+        <v>1426.11</v>
       </c>
       <c r="AW6" s="1">
-        <v>-314.047000</v>
+        <v>-314.04700000000003</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>3176.755970</v>
+        <v>3176.7559700000002</v>
       </c>
       <c r="AZ6" s="1">
-        <v>0.882432</v>
+        <v>0.88243199999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1445.180000</v>
+        <v>1445.18</v>
       </c>
       <c r="BB6" s="1">
-        <v>-366.556000</v>
+        <v>-366.55599999999998</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>3187.346580</v>
+        <v>3187.3465799999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>0.885374</v>
+        <v>0.88537399999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1528.700000</v>
+        <v>1528.7</v>
       </c>
       <c r="BG6" s="1">
-        <v>-618.009000</v>
+        <v>-618.00900000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>3198.447013</v>
       </c>
       <c r="BJ6" s="1">
-        <v>0.888458</v>
+        <v>0.88845799999999997</v>
       </c>
       <c r="BK6" s="1">
-        <v>1679.840000</v>
+        <v>1679.84</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1071.740000</v>
+        <v>-1071.74</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>3209.321302</v>
+        <v>3209.3213019999998</v>
       </c>
       <c r="BO6" s="1">
-        <v>0.891478</v>
+        <v>0.89147799999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1970.560000</v>
+        <v>1970.56</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1862.930000</v>
+        <v>-1862.93</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>3220.178728</v>
+        <v>3220.1787279999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>0.894494</v>
+        <v>0.89449400000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>2358.660000</v>
+        <v>2358.66</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2782.780000</v>
+        <v>-2782.78</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>3231.301018</v>
+        <v>3231.3010180000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>0.897584</v>
+        <v>0.89758400000000005</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2841.930000</v>
+        <v>2841.93</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3787.260000</v>
+        <v>-3787.26</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>3242.680730</v>
+        <v>3242.68073</v>
       </c>
       <c r="CD6" s="1">
-        <v>0.900745</v>
+        <v>0.90074500000000002</v>
       </c>
       <c r="CE6" s="1">
-        <v>4290.820000</v>
+        <v>4290.82</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6234.950000</v>
+        <v>-6234.95</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>3071.961228</v>
+        <v>3071.9612280000001</v>
       </c>
       <c r="B7" s="1">
-        <v>0.853323</v>
+        <v>0.85332300000000005</v>
       </c>
       <c r="C7" s="1">
-        <v>1242.420000</v>
+        <v>1242.42</v>
       </c>
       <c r="D7" s="1">
-        <v>-306.622000</v>
+        <v>-306.62200000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>3081.969503</v>
+        <v>3081.9695029999998</v>
       </c>
       <c r="G7" s="1">
-        <v>0.856103</v>
+        <v>0.85610299999999995</v>
       </c>
       <c r="H7" s="1">
-        <v>1268.280000</v>
+        <v>1268.28</v>
       </c>
       <c r="I7" s="1">
-        <v>-264.826000</v>
+        <v>-264.82600000000002</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>3092.403841</v>
+        <v>3092.4038409999998</v>
       </c>
       <c r="L7" s="1">
-        <v>0.859001</v>
+        <v>0.85900100000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1304.060000</v>
+        <v>1304.06</v>
       </c>
       <c r="N7" s="1">
-        <v>-202.743000</v>
+        <v>-202.74299999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>3102.908115</v>
+        <v>3102.9081150000002</v>
       </c>
       <c r="Q7" s="1">
-        <v>0.861919</v>
+        <v>0.86191899999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1316.340000</v>
+        <v>1316.34</v>
       </c>
       <c r="S7" s="1">
-        <v>-184.858000</v>
+        <v>-184.858</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>3113.511589</v>
+        <v>3113.5115890000002</v>
       </c>
       <c r="V7" s="1">
-        <v>0.864864</v>
+        <v>0.86486399999999997</v>
       </c>
       <c r="W7" s="1">
-        <v>1329.550000</v>
+        <v>1329.55</v>
       </c>
       <c r="X7" s="1">
-        <v>-171.449000</v>
+        <v>-171.44900000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>3123.969736</v>
       </c>
       <c r="AA7" s="1">
-        <v>0.867769</v>
+        <v>0.86776900000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1346.710000</v>
+        <v>1346.71</v>
       </c>
       <c r="AC7" s="1">
-        <v>-169.356000</v>
+        <v>-169.35599999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>3134.461609</v>
       </c>
       <c r="AF7" s="1">
-        <v>0.870684</v>
+        <v>0.87068400000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>1359.630000</v>
+        <v>1359.63</v>
       </c>
       <c r="AH7" s="1">
-        <v>-179.375000</v>
+        <v>-179.375</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>3144.695068</v>
       </c>
       <c r="AK7" s="1">
-        <v>0.873526</v>
+        <v>0.87352600000000002</v>
       </c>
       <c r="AL7" s="1">
-        <v>1380.330000</v>
+        <v>1380.33</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.457000</v>
+        <v>-209.45699999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>3155.020782</v>
+        <v>3155.0207820000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>0.876395</v>
+        <v>0.87639500000000004</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1401.830000</v>
+        <v>1401.83</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.588000</v>
+        <v>-253.58799999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>3166.019072</v>
+        <v>3166.0190720000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>0.879450</v>
+        <v>0.87944999999999995</v>
       </c>
       <c r="AV7" s="1">
-        <v>1426.070000</v>
+        <v>1426.07</v>
       </c>
       <c r="AW7" s="1">
-        <v>-314.022000</v>
+        <v>-314.02199999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>3177.474672</v>
+        <v>3177.4746719999998</v>
       </c>
       <c r="AZ7" s="1">
-        <v>0.882632</v>
+        <v>0.88263199999999997</v>
       </c>
       <c r="BA7" s="1">
-        <v>1445.120000</v>
+        <v>1445.12</v>
       </c>
       <c r="BB7" s="1">
-        <v>-366.603000</v>
+        <v>-366.60300000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>3188.065250</v>
+        <v>3188.0652500000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>0.885574</v>
+        <v>0.88557399999999997</v>
       </c>
       <c r="BF7" s="1">
-        <v>1528.680000</v>
+        <v>1528.68</v>
       </c>
       <c r="BG7" s="1">
-        <v>-618.062000</v>
+        <v>-618.06200000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>3198.819508</v>
       </c>
       <c r="BJ7" s="1">
-        <v>0.888561</v>
+        <v>0.88856100000000005</v>
       </c>
       <c r="BK7" s="1">
-        <v>1679.920000</v>
+        <v>1679.92</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1071.710000</v>
+        <v>-1071.71</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>3209.711158</v>
+        <v>3209.7111580000001</v>
       </c>
       <c r="BO7" s="1">
-        <v>0.891586</v>
+        <v>0.89158599999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1970.740000</v>
+        <v>1970.74</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1862.990000</v>
+        <v>-1862.99</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>3220.587928</v>
+        <v>3220.5879279999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>0.894608</v>
+        <v>0.89460799999999996</v>
       </c>
       <c r="BU7" s="1">
-        <v>2358.230000</v>
+        <v>2358.23</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2782.910000</v>
+        <v>-2782.91</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>3232.032616</v>
@@ -1991,679 +2407,679 @@
         <v>0.897787</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2841.230000</v>
+        <v>2841.23</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3787.460000</v>
+        <v>-3787.46</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>3243.219919</v>
+        <v>3243.2199190000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>0.900894</v>
+        <v>0.90089399999999997</v>
       </c>
       <c r="CE7" s="1">
-        <v>4276.030000</v>
+        <v>4276.03</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6222.780000</v>
+        <v>-6222.78</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>3072.302475</v>
       </c>
       <c r="B8" s="1">
-        <v>0.853417</v>
+        <v>0.85341699999999998</v>
       </c>
       <c r="C8" s="1">
-        <v>1242.340000</v>
+        <v>1242.3399999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-306.639000</v>
+        <v>-306.63900000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>3082.314222</v>
       </c>
       <c r="G8" s="1">
-        <v>0.856198</v>
+        <v>0.85619800000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>1268.560000</v>
+        <v>1268.56</v>
       </c>
       <c r="I8" s="1">
-        <v>-265.064000</v>
+        <v>-265.06400000000002</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>3092.960390</v>
+        <v>3092.9603900000002</v>
       </c>
       <c r="L8" s="1">
-        <v>0.859156</v>
+        <v>0.85915600000000003</v>
       </c>
       <c r="M8" s="1">
-        <v>1304.460000</v>
+        <v>1304.46</v>
       </c>
       <c r="N8" s="1">
-        <v>-203.040000</v>
+        <v>-203.04</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>3103.329256</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.862036</v>
+        <v>0.86203600000000002</v>
       </c>
       <c r="R8" s="1">
-        <v>1316.290000</v>
+        <v>1316.29</v>
       </c>
       <c r="S8" s="1">
-        <v>-184.922000</v>
+        <v>-184.922</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>3113.803765</v>
+        <v>3113.8037650000001</v>
       </c>
       <c r="V8" s="1">
-        <v>0.864945</v>
+        <v>0.86494499999999996</v>
       </c>
       <c r="W8" s="1">
-        <v>1329.560000</v>
+        <v>1329.56</v>
       </c>
       <c r="X8" s="1">
-        <v>-171.500000</v>
+        <v>-171.5</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>3124.257448</v>
+        <v>3124.2574479999998</v>
       </c>
       <c r="AA8" s="1">
-        <v>0.867849</v>
+        <v>0.86784899999999998</v>
       </c>
       <c r="AB8" s="1">
-        <v>1346.880000</v>
+        <v>1346.88</v>
       </c>
       <c r="AC8" s="1">
-        <v>-169.278000</v>
+        <v>-169.27799999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>3134.808842</v>
+        <v>3134.8088419999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>0.870780</v>
+        <v>0.87078</v>
       </c>
       <c r="AG8" s="1">
-        <v>1359.640000</v>
+        <v>1359.64</v>
       </c>
       <c r="AH8" s="1">
-        <v>-179.409000</v>
+        <v>-179.40899999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>3145.044285</v>
+        <v>3145.0442849999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>0.873623</v>
+        <v>0.87362300000000004</v>
       </c>
       <c r="AL8" s="1">
-        <v>1380.310000</v>
+        <v>1380.31</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.472000</v>
+        <v>-209.47200000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>3155.381374</v>
+        <v>3155.3813740000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>0.876495</v>
+        <v>0.87649500000000002</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1401.870000</v>
+        <v>1401.87</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.543000</v>
+        <v>-253.54300000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>3166.742766</v>
+        <v>3166.7427659999998</v>
       </c>
       <c r="AU8" s="1">
-        <v>0.879651</v>
+        <v>0.87965099999999996</v>
       </c>
       <c r="AV8" s="1">
-        <v>1426.130000</v>
+        <v>1426.13</v>
       </c>
       <c r="AW8" s="1">
-        <v>-313.995000</v>
+        <v>-313.995</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>3177.862082</v>
+        <v>3177.8620820000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>0.882739</v>
+        <v>0.88273900000000005</v>
       </c>
       <c r="BA8" s="1">
-        <v>1445.170000</v>
+        <v>1445.17</v>
       </c>
       <c r="BB8" s="1">
-        <v>-366.619000</v>
+        <v>-366.61900000000003</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>3188.429314</v>
       </c>
       <c r="BE8" s="1">
-        <v>0.885675</v>
+        <v>0.88567499999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1528.730000</v>
+        <v>1528.73</v>
       </c>
       <c r="BG8" s="1">
-        <v>-618.008000</v>
+        <v>-618.00800000000004</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>3199.196003</v>
       </c>
       <c r="BJ8" s="1">
-        <v>0.888666</v>
+        <v>0.88866599999999996</v>
       </c>
       <c r="BK8" s="1">
-        <v>1679.900000</v>
+        <v>1679.9</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1071.720000</v>
+        <v>-1071.72</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>3210.446229</v>
+        <v>3210.4462290000001</v>
       </c>
       <c r="BO8" s="1">
         <v>0.891791</v>
       </c>
       <c r="BP8" s="1">
-        <v>1970.400000</v>
+        <v>1970.4</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1862.880000</v>
+        <v>-1862.88</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>3221.335399</v>
+        <v>3221.3353990000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>0.894815</v>
+        <v>0.89481500000000003</v>
       </c>
       <c r="BU8" s="1">
-        <v>2357.480000</v>
+        <v>2357.48</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2783.080000</v>
+        <v>-2783.08</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>3232.149672</v>
       </c>
       <c r="BY8" s="1">
-        <v>0.897819</v>
+        <v>0.89781900000000003</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2841.130000</v>
+        <v>2841.13</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3787.740000</v>
+        <v>-3787.74</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>3243.762822</v>
+        <v>3243.7628220000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>0.901045</v>
+        <v>0.90104499999999998</v>
       </c>
       <c r="CE8" s="1">
-        <v>4273.510000</v>
+        <v>4273.51</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6242.360000</v>
+        <v>-6242.36</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>3072.645708</v>
       </c>
       <c r="B9" s="1">
-        <v>0.853513</v>
+        <v>0.85351299999999997</v>
       </c>
       <c r="C9" s="1">
-        <v>1242.720000</v>
+        <v>1242.72</v>
       </c>
       <c r="D9" s="1">
-        <v>-306.461000</v>
+        <v>-306.46100000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>3082.749710</v>
+        <v>3082.7497100000001</v>
       </c>
       <c r="G9" s="1">
-        <v>0.856319</v>
+        <v>0.85631900000000005</v>
       </c>
       <c r="H9" s="1">
-        <v>1267.490000</v>
+        <v>1267.49</v>
       </c>
       <c r="I9" s="1">
-        <v>-265.217000</v>
+        <v>-265.21699999999998</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>3093.093809</v>
       </c>
       <c r="L9" s="1">
-        <v>0.859193</v>
+        <v>0.85919299999999998</v>
       </c>
       <c r="M9" s="1">
-        <v>1304.350000</v>
+        <v>1304.3499999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-202.907000</v>
+        <v>-202.90700000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>3103.610482</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.862114</v>
+        <v>0.86211400000000005</v>
       </c>
       <c r="R9" s="1">
-        <v>1316.240000</v>
+        <v>1316.24</v>
       </c>
       <c r="S9" s="1">
-        <v>-184.871000</v>
+        <v>-184.87100000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>3114.148948</v>
       </c>
       <c r="V9" s="1">
-        <v>0.865041</v>
+        <v>0.86504099999999995</v>
       </c>
       <c r="W9" s="1">
-        <v>1329.350000</v>
+        <v>1329.35</v>
       </c>
       <c r="X9" s="1">
-        <v>-171.450000</v>
+        <v>-171.45</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>3124.608582</v>
+        <v>3124.6085819999998</v>
       </c>
       <c r="AA9" s="1">
-        <v>0.867947</v>
+        <v>0.86794700000000002</v>
       </c>
       <c r="AB9" s="1">
-        <v>1346.940000</v>
+        <v>1346.94</v>
       </c>
       <c r="AC9" s="1">
-        <v>-169.357000</v>
+        <v>-169.357</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>3135.153529</v>
+        <v>3135.1535290000002</v>
       </c>
       <c r="AF9" s="1">
-        <v>0.870876</v>
+        <v>0.87087599999999998</v>
       </c>
       <c r="AG9" s="1">
-        <v>1359.720000</v>
+        <v>1359.72</v>
       </c>
       <c r="AH9" s="1">
-        <v>-179.407000</v>
+        <v>-179.40700000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>3145.741627</v>
+        <v>3145.7416269999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>0.873817</v>
+        <v>0.87381699999999995</v>
       </c>
       <c r="AL9" s="1">
-        <v>1380.360000</v>
+        <v>1380.36</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.476000</v>
+        <v>-209.476</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>3156.106526</v>
       </c>
       <c r="AP9" s="1">
-        <v>0.876696</v>
+        <v>0.87669600000000003</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1401.840000</v>
+        <v>1401.84</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.560000</v>
+        <v>-253.56</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>3167.132591</v>
       </c>
       <c r="AU9" s="1">
-        <v>0.879759</v>
+        <v>0.87975899999999996</v>
       </c>
       <c r="AV9" s="1">
-        <v>1426.110000</v>
+        <v>1426.11</v>
       </c>
       <c r="AW9" s="1">
-        <v>-314.009000</v>
+        <v>-314.00900000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>3178.220657</v>
+        <v>3178.2206569999998</v>
       </c>
       <c r="AZ9" s="1">
-        <v>0.882839</v>
+        <v>0.88283900000000004</v>
       </c>
       <c r="BA9" s="1">
-        <v>1445.160000</v>
+        <v>1445.16</v>
       </c>
       <c r="BB9" s="1">
-        <v>-366.559000</v>
+        <v>-366.55900000000003</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>3188.793410</v>
+        <v>3188.7934100000002</v>
       </c>
       <c r="BE9" s="1">
-        <v>0.885776</v>
+        <v>0.88577600000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1528.740000</v>
+        <v>1528.74</v>
       </c>
       <c r="BG9" s="1">
-        <v>-618.035000</v>
+        <v>-618.03499999999997</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>3199.874531</v>
+        <v>3199.8745309999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>0.888854</v>
+        <v>0.88885400000000003</v>
       </c>
       <c r="BK9" s="1">
-        <v>1679.960000</v>
+        <v>1679.96</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1071.680000</v>
+        <v>-1071.68</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>3210.946724</v>
+        <v>3210.9467239999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>0.891930</v>
+        <v>0.89193</v>
       </c>
       <c r="BP9" s="1">
-        <v>1970.630000</v>
+        <v>1970.63</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1863.000000</v>
+        <v>-1863</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>3221.448982</v>
+        <v>3221.4489819999999</v>
       </c>
       <c r="BT9" s="1">
-        <v>0.894847</v>
+        <v>0.89484699999999995</v>
       </c>
       <c r="BU9" s="1">
-        <v>2357.440000</v>
+        <v>2357.44</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2783.300000</v>
+        <v>-2783.3</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>3232.599081</v>
+        <v>3232.5990809999998</v>
       </c>
       <c r="BY9" s="1">
-        <v>0.897944</v>
+        <v>0.89794399999999996</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2841.580000</v>
+        <v>2841.58</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3787.980000</v>
+        <v>-3787.98</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>3244.299673</v>
       </c>
       <c r="CD9" s="1">
-        <v>0.901194</v>
+        <v>0.90119400000000005</v>
       </c>
       <c r="CE9" s="1">
-        <v>4288.660000</v>
+        <v>4288.66</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6222.390000</v>
+        <v>-6222.39</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>3073.070283</v>
       </c>
       <c r="B10" s="1">
-        <v>0.853631</v>
+        <v>0.85363100000000003</v>
       </c>
       <c r="C10" s="1">
-        <v>1242.700000</v>
+        <v>1242.7</v>
       </c>
       <c r="D10" s="1">
-        <v>-306.610000</v>
+        <v>-306.61</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>3083.028462</v>
+        <v>3083.0284620000002</v>
       </c>
       <c r="G10" s="1">
-        <v>0.856397</v>
+        <v>0.85639699999999996</v>
       </c>
       <c r="H10" s="1">
-        <v>1268.210000</v>
+        <v>1268.21</v>
       </c>
       <c r="I10" s="1">
-        <v>-265.035000</v>
+        <v>-265.03500000000003</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>3093.438992</v>
+        <v>3093.4389919999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0.859289</v>
+        <v>0.85928899999999997</v>
       </c>
       <c r="M10" s="1">
-        <v>1304.240000</v>
+        <v>1304.24</v>
       </c>
       <c r="N10" s="1">
-        <v>-203.111000</v>
+        <v>-203.11099999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>3103.959634</v>
+        <v>3103.9596339999998</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.862211</v>
+        <v>0.86221099999999995</v>
       </c>
       <c r="R10" s="1">
-        <v>1316.200000</v>
+        <v>1316.2</v>
       </c>
       <c r="S10" s="1">
-        <v>-184.783000</v>
+        <v>-184.78299999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>3114.491684</v>
+        <v>3114.4916840000001</v>
       </c>
       <c r="V10" s="1">
-        <v>0.865137</v>
+        <v>0.86513700000000004</v>
       </c>
       <c r="W10" s="1">
-        <v>1329.420000</v>
+        <v>1329.42</v>
       </c>
       <c r="X10" s="1">
-        <v>-171.365000</v>
+        <v>-171.36500000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>3124.960742</v>
+        <v>3124.9607420000002</v>
       </c>
       <c r="AA10" s="1">
-        <v>0.868045</v>
+        <v>0.86804499999999996</v>
       </c>
       <c r="AB10" s="1">
-        <v>1346.750000</v>
+        <v>1346.75</v>
       </c>
       <c r="AC10" s="1">
-        <v>-169.368000</v>
+        <v>-169.36799999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>3135.837016</v>
+        <v>3135.8370159999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>0.871066</v>
+        <v>0.87106600000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1359.700000</v>
+        <v>1359.7</v>
       </c>
       <c r="AH10" s="1">
-        <v>-179.386000</v>
+        <v>-179.386</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>3146.090810</v>
+        <v>3146.0908100000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>0.873914</v>
+        <v>0.87391399999999997</v>
       </c>
       <c r="AL10" s="1">
-        <v>1380.320000</v>
+        <v>1380.32</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.486000</v>
+        <v>-209.48599999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>3156.483980</v>
+        <v>3156.48398</v>
       </c>
       <c r="AP10" s="1">
-        <v>0.876801</v>
+        <v>0.87680100000000005</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1401.840000</v>
+        <v>1401.84</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.562000</v>
+        <v>-253.56200000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>3167.500622</v>
@@ -2672,13 +3088,13 @@
         <v>0.879861</v>
       </c>
       <c r="AV10" s="1">
-        <v>1426.130000</v>
+        <v>1426.13</v>
       </c>
       <c r="AW10" s="1">
-        <v>-314.006000</v>
+        <v>-314.00599999999997</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>3178.883808</v>
@@ -2687,1026 +3103,1026 @@
         <v>0.883023</v>
       </c>
       <c r="BA10" s="1">
-        <v>1445.140000</v>
+        <v>1445.14</v>
       </c>
       <c r="BB10" s="1">
-        <v>-366.554000</v>
+        <v>-366.55399999999997</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>3189.456529</v>
       </c>
       <c r="BE10" s="1">
-        <v>0.885960</v>
+        <v>0.88595999999999997</v>
       </c>
       <c r="BF10" s="1">
-        <v>1528.700000</v>
+        <v>1528.7</v>
       </c>
       <c r="BG10" s="1">
-        <v>-618.014000</v>
+        <v>-618.01400000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>3200.320402</v>
+        <v>3200.3204019999998</v>
       </c>
       <c r="BJ10" s="1">
-        <v>0.888978</v>
+        <v>0.88897800000000005</v>
       </c>
       <c r="BK10" s="1">
-        <v>1679.910000</v>
+        <v>1679.91</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1071.670000</v>
+        <v>-1071.67</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>3211.366309</v>
       </c>
       <c r="BO10" s="1">
-        <v>0.892046</v>
+        <v>0.89204600000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1970.560000</v>
+        <v>1970.56</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1862.860000</v>
+        <v>-1862.86</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>3221.888465</v>
       </c>
       <c r="BT10" s="1">
-        <v>0.894969</v>
+        <v>0.89496900000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>2356.780000</v>
+        <v>2356.7800000000002</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2783.530000</v>
+        <v>-2783.53</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>3233.030567</v>
+        <v>3233.0305669999998</v>
       </c>
       <c r="BY10" s="1">
-        <v>0.898064</v>
+        <v>0.89806399999999997</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2842.190000</v>
+        <v>2842.19</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3787.710000</v>
+        <v>-3787.71</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>3244.842297</v>
+        <v>3244.8422970000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>0.901345</v>
+        <v>0.90134499999999995</v>
       </c>
       <c r="CE10" s="1">
-        <v>4267.150000</v>
+        <v>4267.1499999999996</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6230.950000</v>
+        <v>-6230.95</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>3073.344635</v>
+        <v>3073.3446349999999</v>
       </c>
       <c r="B11" s="1">
-        <v>0.853707</v>
+        <v>0.85370699999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1242.230000</v>
+        <v>1242.23</v>
       </c>
       <c r="D11" s="1">
-        <v>-306.860000</v>
+        <v>-306.86</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>3083.375165</v>
+        <v>3083.3751649999999</v>
       </c>
       <c r="G11" s="1">
-        <v>0.856493</v>
+        <v>0.85649299999999995</v>
       </c>
       <c r="H11" s="1">
-        <v>1268.120000</v>
+        <v>1268.1199999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-264.711000</v>
+        <v>-264.71100000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>3093.784242</v>
+        <v>3093.7842420000002</v>
       </c>
       <c r="L11" s="1">
-        <v>0.859385</v>
+        <v>0.85938499999999995</v>
       </c>
       <c r="M11" s="1">
-        <v>1304.110000</v>
+        <v>1304.1099999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-202.940000</v>
+        <v>-202.94</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>3104.305346</v>
+        <v>3104.3053460000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>0.862307</v>
+        <v>0.86230700000000005</v>
       </c>
       <c r="R11" s="1">
-        <v>1316.330000</v>
+        <v>1316.33</v>
       </c>
       <c r="S11" s="1">
-        <v>-184.846000</v>
+        <v>-184.846</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>3115.179636</v>
+        <v>3115.1796359999998</v>
       </c>
       <c r="V11" s="1">
-        <v>0.865328</v>
+        <v>0.86532799999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1329.500000</v>
+        <v>1329.5</v>
       </c>
       <c r="X11" s="1">
-        <v>-171.276000</v>
+        <v>-171.27600000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>3125.723207</v>
       </c>
       <c r="AA11" s="1">
-        <v>0.868256</v>
+        <v>0.86825600000000003</v>
       </c>
       <c r="AB11" s="1">
-        <v>1346.830000</v>
+        <v>1346.83</v>
       </c>
       <c r="AC11" s="1">
-        <v>-169.395000</v>
+        <v>-169.39500000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>3136.179255</v>
       </c>
       <c r="AF11" s="1">
-        <v>0.871161</v>
+        <v>0.87116099999999996</v>
       </c>
       <c r="AG11" s="1">
-        <v>1359.670000</v>
+        <v>1359.67</v>
       </c>
       <c r="AH11" s="1">
-        <v>-179.412000</v>
+        <v>-179.41200000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>3146.442016</v>
       </c>
       <c r="AK11" s="1">
-        <v>0.874012</v>
+        <v>0.87401200000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1380.350000</v>
+        <v>1380.35</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.436000</v>
+        <v>-209.43600000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>3156.842125</v>
+        <v>3156.8421250000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>0.876901</v>
+        <v>0.87690100000000004</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1401.870000</v>
+        <v>1401.87</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.563000</v>
+        <v>-253.56299999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>3168.164269</v>
+        <v>3168.1642689999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>0.880046</v>
+        <v>0.88004599999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1426.120000</v>
+        <v>1426.12</v>
       </c>
       <c r="AW11" s="1">
-        <v>-313.978000</v>
+        <v>-313.97800000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>3179.328751</v>
       </c>
       <c r="AZ11" s="1">
-        <v>0.883147</v>
+        <v>0.88314700000000002</v>
       </c>
       <c r="BA11" s="1">
-        <v>1445.170000</v>
+        <v>1445.17</v>
       </c>
       <c r="BB11" s="1">
-        <v>-366.578000</v>
+        <v>-366.57799999999997</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>3189.906896</v>
       </c>
       <c r="BE11" s="1">
-        <v>0.886085</v>
+        <v>0.88608500000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1528.710000</v>
+        <v>1528.71</v>
       </c>
       <c r="BG11" s="1">
-        <v>-617.992000</v>
+        <v>-617.99199999999996</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>3200.700835</v>
+        <v>3200.7008350000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>0.889084</v>
+        <v>0.88908399999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1679.890000</v>
+        <v>1679.89</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1071.690000</v>
+        <v>-1071.69</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>3211.763636</v>
+        <v>3211.7636360000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>0.892157</v>
+        <v>0.89215699999999998</v>
       </c>
       <c r="BP11" s="1">
-        <v>1970.580000</v>
+        <v>1970.58</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1862.700000</v>
+        <v>-1862.7</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>3222.297657</v>
+        <v>3222.2976570000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>0.895083</v>
+        <v>0.89508299999999996</v>
       </c>
       <c r="BU11" s="1">
-        <v>2356.090000</v>
+        <v>2356.09</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2783.030000</v>
+        <v>-2783.03</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>3233.451703</v>
+        <v>3233.4517030000002</v>
       </c>
       <c r="BY11" s="1">
-        <v>0.898181</v>
+        <v>0.89818100000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2841.710000</v>
+        <v>2841.71</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3786.940000</v>
+        <v>-3786.94</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>3245.381975</v>
+        <v>3245.3819749999998</v>
       </c>
       <c r="CD11" s="1">
-        <v>0.901495</v>
+        <v>0.90149500000000005</v>
       </c>
       <c r="CE11" s="1">
-        <v>4287.730000</v>
+        <v>4287.7299999999996</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6237.720000</v>
+        <v>-6237.72</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>3073.686315</v>
+        <v>3073.6863149999999</v>
       </c>
       <c r="B12" s="1">
-        <v>0.853802</v>
+        <v>0.85380199999999995</v>
       </c>
       <c r="C12" s="1">
-        <v>1242.350000</v>
+        <v>1242.3499999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-306.802000</v>
+        <v>-306.80200000000002</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>3083.719388</v>
       </c>
       <c r="G12" s="1">
-        <v>0.856589</v>
+        <v>0.85658900000000004</v>
       </c>
       <c r="H12" s="1">
-        <v>1268.180000</v>
+        <v>1268.18</v>
       </c>
       <c r="I12" s="1">
-        <v>-264.947000</v>
+        <v>-264.947</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>3094.475636</v>
+        <v>3094.4756360000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0.859577</v>
+        <v>0.85957700000000004</v>
       </c>
       <c r="M12" s="1">
-        <v>1303.960000</v>
+        <v>1303.96</v>
       </c>
       <c r="N12" s="1">
-        <v>-202.576000</v>
+        <v>-202.57599999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>3105.003713</v>
+        <v>3105.0037130000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.862501</v>
+        <v>0.86250099999999996</v>
       </c>
       <c r="R12" s="1">
-        <v>1316.300000</v>
+        <v>1316.3</v>
       </c>
       <c r="S12" s="1">
-        <v>-184.930000</v>
+        <v>-184.93</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>3115.517907</v>
+        <v>3115.5179069999999</v>
       </c>
       <c r="V12" s="1">
-        <v>0.865422</v>
+        <v>0.86542200000000002</v>
       </c>
       <c r="W12" s="1">
-        <v>1329.490000</v>
+        <v>1329.49</v>
       </c>
       <c r="X12" s="1">
-        <v>-171.434000</v>
+        <v>-171.434</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>3126.004822</v>
+        <v>3126.0048219999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>0.868335</v>
+        <v>0.86833499999999997</v>
       </c>
       <c r="AB12" s="1">
-        <v>1346.890000</v>
+        <v>1346.89</v>
       </c>
       <c r="AC12" s="1">
-        <v>-169.309000</v>
+        <v>-169.309</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>3136.527447</v>
+        <v>3136.5274469999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>0.871258</v>
+        <v>0.87125799999999998</v>
       </c>
       <c r="AG12" s="1">
-        <v>1359.730000</v>
+        <v>1359.73</v>
       </c>
       <c r="AH12" s="1">
-        <v>-179.432000</v>
+        <v>-179.43199999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>3147.086282</v>
+        <v>3147.0862820000002</v>
       </c>
       <c r="AK12" s="1">
-        <v>0.874191</v>
+        <v>0.87419100000000005</v>
       </c>
       <c r="AL12" s="1">
-        <v>1380.330000</v>
+        <v>1380.33</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.463000</v>
+        <v>-209.46299999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>3157.506732</v>
+        <v>3157.5067319999998</v>
       </c>
       <c r="AP12" s="1">
         <v>0.877085</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1401.840000</v>
+        <v>1401.84</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.540000</v>
+        <v>-253.54</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>3168.624097</v>
+        <v>3168.6240969999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>0.880173</v>
+        <v>0.88017299999999998</v>
       </c>
       <c r="AV12" s="1">
-        <v>1426.080000</v>
+        <v>1426.08</v>
       </c>
       <c r="AW12" s="1">
-        <v>-313.993000</v>
+        <v>-313.99299999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>3179.688849</v>
+        <v>3179.6888490000001</v>
       </c>
       <c r="AZ12" s="1">
         <v>0.883247</v>
       </c>
       <c r="BA12" s="1">
-        <v>1445.140000</v>
+        <v>1445.14</v>
       </c>
       <c r="BB12" s="1">
-        <v>-366.581000</v>
+        <v>-366.58100000000002</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>3190.267518</v>
+        <v>3190.2675180000001</v>
       </c>
       <c r="BE12" s="1">
         <v>0.886185</v>
       </c>
       <c r="BF12" s="1">
-        <v>1528.720000</v>
+        <v>1528.72</v>
       </c>
       <c r="BG12" s="1">
-        <v>-618.061000</v>
+        <v>-618.06100000000004</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>3201.072337</v>
+        <v>3201.0723370000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>0.889187</v>
+        <v>0.88918699999999995</v>
       </c>
       <c r="BK12" s="1">
-        <v>1679.910000</v>
+        <v>1679.91</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1071.610000</v>
+        <v>-1071.6099999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>3212.184248</v>
       </c>
       <c r="BO12" s="1">
-        <v>0.892273</v>
+        <v>0.89227299999999998</v>
       </c>
       <c r="BP12" s="1">
-        <v>1970.460000</v>
+        <v>1970.46</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1862.840000</v>
+        <v>-1862.84</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>3222.733125</v>
+        <v>3222.7331250000002</v>
       </c>
       <c r="BT12" s="1">
         <v>0.895204</v>
       </c>
       <c r="BU12" s="1">
-        <v>2355.460000</v>
+        <v>2355.46</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2783.440000</v>
+        <v>-2783.44</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>3233.871782</v>
+        <v>3233.8717820000002</v>
       </c>
       <c r="BY12" s="1">
-        <v>0.898298</v>
+        <v>0.89829800000000004</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2841.030000</v>
+        <v>2841.03</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3787.560000</v>
+        <v>-3787.56</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>3245.921130</v>
+        <v>3245.9211300000002</v>
       </c>
       <c r="CD12" s="1">
-        <v>0.901645</v>
+        <v>0.90164500000000003</v>
       </c>
       <c r="CE12" s="1">
-        <v>4277.950000</v>
+        <v>4277.95</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6221.320000</v>
+        <v>-6221.32</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>3074.024601</v>
+        <v>3074.0246010000001</v>
       </c>
       <c r="B13" s="1">
-        <v>0.853896</v>
+        <v>0.85389599999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1242.470000</v>
+        <v>1242.47</v>
       </c>
       <c r="D13" s="1">
-        <v>-306.468000</v>
+        <v>-306.46800000000002</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>3084.408333</v>
+        <v>3084.4083329999999</v>
       </c>
       <c r="G13" s="1">
-        <v>0.856780</v>
+        <v>0.85677999999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1268.230000</v>
+        <v>1268.23</v>
       </c>
       <c r="I13" s="1">
-        <v>-264.538000</v>
+        <v>-264.53800000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>3094.828783</v>
+        <v>3094.8287829999999</v>
       </c>
       <c r="L13" s="1">
-        <v>0.859675</v>
+        <v>0.85967499999999997</v>
       </c>
       <c r="M13" s="1">
-        <v>1304.600000</v>
+        <v>1304.5999999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-203.013000</v>
+        <v>-203.01300000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>3105.351408</v>
       </c>
       <c r="Q13" s="1">
-        <v>0.862598</v>
+        <v>0.86259799999999998</v>
       </c>
       <c r="R13" s="1">
-        <v>1316.240000</v>
+        <v>1316.24</v>
       </c>
       <c r="S13" s="1">
-        <v>-184.892000</v>
+        <v>-184.892</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>3115.866132</v>
+        <v>3115.8661320000001</v>
       </c>
       <c r="V13" s="1">
-        <v>0.865518</v>
+        <v>0.86551800000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1329.470000</v>
+        <v>1329.47</v>
       </c>
       <c r="X13" s="1">
-        <v>-171.366000</v>
+        <v>-171.36600000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>3126.648663</v>
+        <v>3126.6486629999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>0.868514</v>
+        <v>0.86851400000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1346.750000</v>
+        <v>1346.75</v>
       </c>
       <c r="AC13" s="1">
-        <v>-169.297000</v>
+        <v>-169.297</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>3137.178693</v>
+        <v>3137.1786929999998</v>
       </c>
       <c r="AF13" s="1">
-        <v>0.871439</v>
+        <v>0.87143899999999996</v>
       </c>
       <c r="AG13" s="1">
-        <v>1359.690000</v>
+        <v>1359.69</v>
       </c>
       <c r="AH13" s="1">
-        <v>-179.387000</v>
+        <v>-179.387</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>3147.483081</v>
+        <v>3147.4830809999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>0.874301</v>
+        <v>0.87430099999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1380.350000</v>
+        <v>1380.35</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.443000</v>
+        <v>-209.44300000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>3157.917916</v>
+        <v>3157.9179159999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>0.877199</v>
+        <v>0.87719899999999995</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1401.850000</v>
+        <v>1401.85</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.581000</v>
+        <v>-253.58099999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>3168.989652</v>
+        <v>3168.9896520000002</v>
       </c>
       <c r="AU13" s="1">
-        <v>0.880275</v>
+        <v>0.88027500000000003</v>
       </c>
       <c r="AV13" s="1">
-        <v>1426.130000</v>
+        <v>1426.13</v>
       </c>
       <c r="AW13" s="1">
-        <v>-313.984000</v>
+        <v>-313.98399999999998</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>3180.048945</v>
       </c>
       <c r="AZ13" s="1">
-        <v>0.883347</v>
+        <v>0.88334699999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1445.180000</v>
+        <v>1445.18</v>
       </c>
       <c r="BB13" s="1">
-        <v>-366.558000</v>
+        <v>-366.55799999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>3190.629098</v>
+        <v>3190.6290979999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>0.886286</v>
+        <v>0.88628600000000002</v>
       </c>
       <c r="BF13" s="1">
-        <v>1528.680000</v>
+        <v>1528.68</v>
       </c>
       <c r="BG13" s="1">
-        <v>-617.999000</v>
+        <v>-617.99900000000002</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>3201.490993</v>
+        <v>3201.4909929999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>0.889303</v>
+        <v>0.88930299999999995</v>
       </c>
       <c r="BK13" s="1">
-        <v>1679.940000</v>
+        <v>1679.94</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1071.670000</v>
+        <v>-1071.67</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>3212.583986</v>
+        <v>3212.5839860000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>0.892384</v>
+        <v>0.89238399999999996</v>
       </c>
       <c r="BP13" s="1">
-        <v>1970.530000</v>
+        <v>1970.53</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1862.770000</v>
+        <v>-1862.77</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>3223.157204</v>
+        <v>3223.1572040000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>0.895321</v>
+        <v>0.89532100000000003</v>
       </c>
       <c r="BU13" s="1">
-        <v>2355.240000</v>
+        <v>2355.2399999999998</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2782.920000</v>
+        <v>-2782.92</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>3234.299862</v>
+        <v>3234.2998619999998</v>
       </c>
       <c r="BY13" s="1">
-        <v>0.898417</v>
+        <v>0.89841700000000002</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2841.810000</v>
+        <v>2841.81</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3787.360000</v>
+        <v>-3787.36</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>3246.460780</v>
+        <v>3246.4607799999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>0.901795</v>
+        <v>0.90179500000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>4271.810000</v>
+        <v>4271.8100000000004</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6241.630000</v>
+        <v>-6241.63</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>3074.710553</v>
+        <v>3074.7105529999999</v>
       </c>
       <c r="B14" s="1">
-        <v>0.854086</v>
+        <v>0.85408600000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1242.520000</v>
+        <v>1242.52</v>
       </c>
       <c r="D14" s="1">
-        <v>-306.588000</v>
+        <v>-306.58800000000002</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>3084.741147</v>
+        <v>3084.7411470000002</v>
       </c>
       <c r="G14" s="1">
         <v>0.856873</v>
       </c>
       <c r="H14" s="1">
-        <v>1268.210000</v>
+        <v>1268.21</v>
       </c>
       <c r="I14" s="1">
-        <v>-265.060000</v>
+        <v>-265.06</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>3095.178957</v>
+        <v>3095.1789570000001</v>
       </c>
       <c r="L14" s="1">
-        <v>0.859772</v>
+        <v>0.85977199999999998</v>
       </c>
       <c r="M14" s="1">
-        <v>1304.080000</v>
+        <v>1304.08</v>
       </c>
       <c r="N14" s="1">
-        <v>-203.020000</v>
+        <v>-203.02</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>3105.701087</v>
+        <v>3105.7010869999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>0.862695</v>
+        <v>0.86269499999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1316.230000</v>
+        <v>1316.23</v>
       </c>
       <c r="S14" s="1">
-        <v>-184.878000</v>
+        <v>-184.87799999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>3116.507425</v>
+        <v>3116.5074249999998</v>
       </c>
       <c r="V14" s="1">
-        <v>0.865697</v>
+        <v>0.86569700000000005</v>
       </c>
       <c r="W14" s="1">
-        <v>1329.520000</v>
+        <v>1329.52</v>
       </c>
       <c r="X14" s="1">
-        <v>-171.462000</v>
+        <v>-171.46199999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>3127.049395</v>
       </c>
       <c r="AA14" s="1">
-        <v>0.868625</v>
+        <v>0.86862499999999998</v>
       </c>
       <c r="AB14" s="1">
-        <v>1346.790000</v>
+        <v>1346.79</v>
       </c>
       <c r="AC14" s="1">
-        <v>-169.258000</v>
+        <v>-169.25800000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>3137.553205</v>
+        <v>3137.5532050000002</v>
       </c>
       <c r="AF14" s="1">
-        <v>0.871543</v>
+        <v>0.87154299999999996</v>
       </c>
       <c r="AG14" s="1">
-        <v>1359.710000</v>
+        <v>1359.71</v>
       </c>
       <c r="AH14" s="1">
-        <v>-179.393000</v>
+        <v>-179.393</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>3147.832759</v>
+        <v>3147.8327589999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>0.874398</v>
+        <v>0.87439800000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>1380.330000</v>
+        <v>1380.33</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.443000</v>
+        <v>-209.44300000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>3158.305290</v>
+        <v>3158.3052899999998</v>
       </c>
       <c r="AP14" s="1">
-        <v>0.877307</v>
+        <v>0.87730699999999995</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1401.850000</v>
+        <v>1401.85</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.546000</v>
+        <v>-253.54599999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>3169.355659</v>
+        <v>3169.3556589999998</v>
       </c>
       <c r="AU14" s="1">
-        <v>0.880377</v>
+        <v>0.88037699999999997</v>
       </c>
       <c r="AV14" s="1">
-        <v>1426.130000</v>
+        <v>1426.13</v>
       </c>
       <c r="AW14" s="1">
-        <v>-314.032000</v>
+        <v>-314.03199999999998</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>3180.465549</v>
@@ -3715,587 +4131,587 @@
         <v>0.883463</v>
       </c>
       <c r="BA14" s="1">
-        <v>1445.170000</v>
+        <v>1445.17</v>
       </c>
       <c r="BB14" s="1">
-        <v>-366.564000</v>
+        <v>-366.56400000000002</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>3191.049678</v>
+        <v>3191.0496779999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>0.886403</v>
+        <v>0.88640300000000005</v>
       </c>
       <c r="BF14" s="1">
-        <v>1528.720000</v>
+        <v>1528.72</v>
       </c>
       <c r="BG14" s="1">
-        <v>-617.983000</v>
+        <v>-617.98299999999995</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>3201.850594</v>
       </c>
       <c r="BJ14" s="1">
-        <v>0.889403</v>
+        <v>0.88940300000000005</v>
       </c>
       <c r="BK14" s="1">
-        <v>1679.900000</v>
+        <v>1679.9</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1071.630000</v>
+        <v>-1071.6300000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>3213.005122</v>
       </c>
       <c r="BO14" s="1">
-        <v>0.892501</v>
+        <v>0.89250099999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1970.510000</v>
+        <v>1970.51</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1862.810000</v>
+        <v>-1862.81</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>3223.570373</v>
       </c>
       <c r="BT14" s="1">
-        <v>0.895436</v>
+        <v>0.89543600000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>2354.610000</v>
+        <v>2354.61</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2782.930000</v>
+        <v>-2782.93</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>3234.712501</v>
       </c>
       <c r="BY14" s="1">
-        <v>0.898531</v>
+        <v>0.89853099999999997</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2840.960000</v>
+        <v>2840.96</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3787.760000</v>
+        <v>-3787.76</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>3247.001877</v>
+        <v>3247.0018770000001</v>
       </c>
       <c r="CD14" s="1">
         <v>0.901945</v>
       </c>
       <c r="CE14" s="1">
-        <v>4287.020000</v>
+        <v>4287.0200000000004</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6220.340000</v>
+        <v>-6220.34</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>3075.053325</v>
+        <v>3075.0533249999999</v>
       </c>
       <c r="B15" s="1">
-        <v>0.854181</v>
+        <v>0.85418099999999997</v>
       </c>
       <c r="C15" s="1">
-        <v>1242.800000</v>
+        <v>1242.8</v>
       </c>
       <c r="D15" s="1">
-        <v>-306.201000</v>
+        <v>-306.20100000000002</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>3085.096779</v>
       </c>
       <c r="G15" s="1">
-        <v>0.856971</v>
+        <v>0.85697100000000004</v>
       </c>
       <c r="H15" s="1">
-        <v>1267.810000</v>
+        <v>1267.81</v>
       </c>
       <c r="I15" s="1">
-        <v>-264.468000</v>
+        <v>-264.46800000000002</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>3095.832685</v>
+        <v>3095.8326849999999</v>
       </c>
       <c r="L15" s="1">
         <v>0.859954</v>
       </c>
       <c r="M15" s="1">
-        <v>1304.300000</v>
+        <v>1304.3</v>
       </c>
       <c r="N15" s="1">
-        <v>-203.025000</v>
+        <v>-203.02500000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>3106.351375</v>
+        <v>3106.3513750000002</v>
       </c>
       <c r="Q15" s="1">
-        <v>0.862875</v>
+        <v>0.86287499999999995</v>
       </c>
       <c r="R15" s="1">
-        <v>1316.220000</v>
+        <v>1316.22</v>
       </c>
       <c r="S15" s="1">
-        <v>-184.809000</v>
+        <v>-184.809</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>3116.895297</v>
       </c>
       <c r="V15" s="1">
-        <v>0.865804</v>
+        <v>0.86580400000000002</v>
       </c>
       <c r="W15" s="1">
-        <v>1329.540000</v>
+        <v>1329.54</v>
       </c>
       <c r="X15" s="1">
-        <v>-171.396000</v>
+        <v>-171.39599999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>3127.398115</v>
       </c>
       <c r="AA15" s="1">
-        <v>0.868722</v>
+        <v>0.86872199999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1346.800000</v>
+        <v>1346.8</v>
       </c>
       <c r="AC15" s="1">
-        <v>-169.293000</v>
+        <v>-169.29300000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>3137.897893</v>
+        <v>3137.8978929999998</v>
       </c>
       <c r="AF15" s="1">
-        <v>0.871638</v>
+        <v>0.87163800000000002</v>
       </c>
       <c r="AG15" s="1">
-        <v>1359.790000</v>
+        <v>1359.79</v>
       </c>
       <c r="AH15" s="1">
-        <v>-179.369000</v>
+        <v>-179.369</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>3148.179959</v>
+        <v>3148.1799590000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>0.874494</v>
+        <v>0.87449399999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1380.330000</v>
+        <v>1380.33</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.463000</v>
+        <v>-209.46299999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>3158.759130</v>
+        <v>3158.7591299999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>0.877433</v>
+        <v>0.87743300000000002</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1401.880000</v>
+        <v>1401.88</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.556000</v>
+        <v>-253.55600000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>3169.789660</v>
+        <v>3169.7896599999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>0.880497</v>
+        <v>0.88049699999999997</v>
       </c>
       <c r="AV15" s="1">
-        <v>1426.100000</v>
+        <v>1426.1</v>
       </c>
       <c r="AW15" s="1">
-        <v>-313.992000</v>
+        <v>-313.99200000000002</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>3180.766126</v>
       </c>
       <c r="AZ15" s="1">
-        <v>0.883546</v>
+        <v>0.88354600000000005</v>
       </c>
       <c r="BA15" s="1">
-        <v>1445.120000</v>
+        <v>1445.12</v>
       </c>
       <c r="BB15" s="1">
-        <v>-366.539000</v>
+        <v>-366.53899999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>3191.350799</v>
+        <v>3191.3507989999998</v>
       </c>
       <c r="BE15" s="1">
         <v>0.886486</v>
       </c>
       <c r="BF15" s="1">
-        <v>1528.670000</v>
+        <v>1528.67</v>
       </c>
       <c r="BG15" s="1">
-        <v>-618.028000</v>
+        <v>-618.02800000000002</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>3202.227030</v>
+        <v>3202.22703</v>
       </c>
       <c r="BJ15" s="1">
-        <v>0.889508</v>
+        <v>0.88950799999999997</v>
       </c>
       <c r="BK15" s="1">
-        <v>1679.840000</v>
+        <v>1679.84</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1071.660000</v>
+        <v>-1071.6600000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>3213.402385</v>
+        <v>3213.4023849999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>0.892612</v>
+        <v>0.89261199999999996</v>
       </c>
       <c r="BP15" s="1">
-        <v>1970.370000</v>
+        <v>1970.37</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1862.890000</v>
+        <v>-1862.89</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>3224.002387</v>
       </c>
       <c r="BT15" s="1">
-        <v>0.895556</v>
+        <v>0.89555600000000002</v>
       </c>
       <c r="BU15" s="1">
-        <v>2354.490000</v>
+        <v>2354.4899999999998</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2781.880000</v>
+        <v>-2781.88</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>3235.169348</v>
+        <v>3235.1693479999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>0.898658</v>
+        <v>0.89865799999999996</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2841.120000</v>
+        <v>2841.12</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3788.000000</v>
+        <v>-3788</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>3247.542549</v>
+        <v>3247.5425489999998</v>
       </c>
       <c r="CD15" s="1">
-        <v>0.902095</v>
+        <v>0.90209499999999998</v>
       </c>
       <c r="CE15" s="1">
-        <v>4268.780000</v>
+        <v>4268.78</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6230.800000</v>
+        <v>-6230.8</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>3075.393080</v>
+        <v>3075.3930799999998</v>
       </c>
       <c r="B16" s="1">
-        <v>0.854276</v>
+        <v>0.85427600000000004</v>
       </c>
       <c r="C16" s="1">
-        <v>1242.410000</v>
+        <v>1242.4100000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-306.718000</v>
+        <v>-306.71800000000002</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>3085.749515</v>
       </c>
       <c r="G16" s="1">
-        <v>0.857153</v>
+        <v>0.85715300000000005</v>
       </c>
       <c r="H16" s="1">
-        <v>1268.010000</v>
+        <v>1268.01</v>
       </c>
       <c r="I16" s="1">
-        <v>-264.618000</v>
+        <v>-264.61799999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>3096.212155</v>
+        <v>3096.2121550000002</v>
       </c>
       <c r="L16" s="1">
-        <v>0.860059</v>
+        <v>0.86005900000000002</v>
       </c>
       <c r="M16" s="1">
-        <v>1304.190000</v>
+        <v>1304.19</v>
       </c>
       <c r="N16" s="1">
-        <v>-202.665000</v>
+        <v>-202.66499999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>3106.743214</v>
+        <v>3106.7432140000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>0.862984</v>
+        <v>0.86298399999999997</v>
       </c>
       <c r="R16" s="1">
-        <v>1316.300000</v>
+        <v>1316.3</v>
       </c>
       <c r="S16" s="1">
-        <v>-184.833000</v>
+        <v>-184.833</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>3117.237041</v>
+        <v>3117.2370409999999</v>
       </c>
       <c r="V16" s="1">
-        <v>0.865899</v>
+        <v>0.86589899999999997</v>
       </c>
       <c r="W16" s="1">
-        <v>1329.510000</v>
+        <v>1329.51</v>
       </c>
       <c r="X16" s="1">
-        <v>-171.314000</v>
+        <v>-171.31399999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>3127.743331</v>
+        <v>3127.7433310000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>0.868818</v>
+        <v>0.86881799999999998</v>
       </c>
       <c r="AB16" s="1">
-        <v>1346.690000</v>
+        <v>1346.69</v>
       </c>
       <c r="AC16" s="1">
-        <v>-169.336000</v>
+        <v>-169.33600000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>3138.241652</v>
+        <v>3138.2416520000002</v>
       </c>
       <c r="AF16" s="1">
-        <v>0.871734</v>
+        <v>0.87173400000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>1359.730000</v>
+        <v>1359.73</v>
       </c>
       <c r="AH16" s="1">
-        <v>-179.402000</v>
+        <v>-179.40199999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>3148.591639</v>
+        <v>3148.5916390000002</v>
       </c>
       <c r="AK16" s="1">
-        <v>0.874609</v>
+        <v>0.87460899999999997</v>
       </c>
       <c r="AL16" s="1">
-        <v>1380.350000</v>
+        <v>1380.35</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.469000</v>
+        <v>-209.46899999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>3159.386073</v>
+        <v>3159.3860730000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>0.877607</v>
+        <v>0.87760700000000003</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1401.860000</v>
+        <v>1401.86</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.537000</v>
+        <v>-253.53700000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>3170.085275</v>
+        <v>3170.0852749999999</v>
       </c>
       <c r="AU16" s="1">
         <v>0.880579</v>
       </c>
       <c r="AV16" s="1">
-        <v>1426.160000</v>
+        <v>1426.16</v>
       </c>
       <c r="AW16" s="1">
-        <v>-314.009000</v>
+        <v>-314.00900000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>3181.123250</v>
+        <v>3181.1232500000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>0.883645</v>
+        <v>0.88364500000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1445.210000</v>
+        <v>1445.21</v>
       </c>
       <c r="BB16" s="1">
-        <v>-366.580000</v>
+        <v>-366.58</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>3191.711379</v>
+        <v>3191.7113789999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>0.886586</v>
+        <v>0.88658599999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1528.690000</v>
+        <v>1528.69</v>
       </c>
       <c r="BG16" s="1">
-        <v>-617.981000</v>
+        <v>-617.98099999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>3202.606992</v>
       </c>
       <c r="BJ16" s="1">
-        <v>0.889613</v>
+        <v>0.88961299999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1679.890000</v>
+        <v>1679.89</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1071.550000</v>
+        <v>-1071.55</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>3213.820547</v>
+        <v>3213.8205469999998</v>
       </c>
       <c r="BO16" s="1">
-        <v>0.892728</v>
+        <v>0.89272799999999997</v>
       </c>
       <c r="BP16" s="1">
-        <v>1970.440000</v>
+        <v>1970.44</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1862.840000</v>
+        <v>-1862.84</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>3224.429938</v>
+        <v>3224.4299380000002</v>
       </c>
       <c r="BT16" s="1">
         <v>0.895675</v>
       </c>
       <c r="BU16" s="1">
-        <v>2354.100000</v>
+        <v>2354.1</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2781.640000</v>
+        <v>-2781.64</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>3235.617236</v>
@@ -4304,2101 +4720,2101 @@
         <v>0.898783</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2841.650000</v>
+        <v>2841.65</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3787.540000</v>
+        <v>-3787.54</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>3248.081203</v>
+        <v>3248.0812030000002</v>
       </c>
       <c r="CD16" s="1">
-        <v>0.902245</v>
+        <v>0.90224499999999996</v>
       </c>
       <c r="CE16" s="1">
-        <v>4285.960000</v>
+        <v>4285.96</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6237.810000</v>
+        <v>-6237.81</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>3075.819639</v>
+        <v>3075.8196389999998</v>
       </c>
       <c r="B17" s="1">
-        <v>0.854394</v>
+        <v>0.85439399999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1242.090000</v>
+        <v>1242.0899999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-306.691000</v>
+        <v>-306.69099999999997</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>3086.131434</v>
+        <v>3086.1314339999999</v>
       </c>
       <c r="G17" s="1">
-        <v>0.857259</v>
+        <v>0.85725899999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>1267.960000</v>
+        <v>1267.96</v>
       </c>
       <c r="I17" s="1">
-        <v>-264.743000</v>
+        <v>-264.74299999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>3096.562332</v>
       </c>
       <c r="L17" s="1">
-        <v>0.860156</v>
+        <v>0.86015600000000003</v>
       </c>
       <c r="M17" s="1">
-        <v>1304.310000</v>
+        <v>1304.31</v>
       </c>
       <c r="N17" s="1">
-        <v>-202.899000</v>
+        <v>-202.899</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>3107.097357</v>
+        <v>3107.0973570000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>0.863083</v>
+        <v>0.86308300000000004</v>
       </c>
       <c r="R17" s="1">
-        <v>1316.340000</v>
+        <v>1316.34</v>
       </c>
       <c r="S17" s="1">
-        <v>-184.837000</v>
+        <v>-184.83699999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>3117.560433</v>
+        <v>3117.5604330000001</v>
       </c>
       <c r="V17" s="1">
-        <v>0.865989</v>
+        <v>0.86598900000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1329.470000</v>
+        <v>1329.47</v>
       </c>
       <c r="X17" s="1">
-        <v>-171.346000</v>
+        <v>-171.346</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>3128.159442</v>
+        <v>3128.1594420000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>0.868933</v>
+        <v>0.86893299999999996</v>
       </c>
       <c r="AB17" s="1">
-        <v>1346.920000</v>
+        <v>1346.92</v>
       </c>
       <c r="AC17" s="1">
-        <v>-169.503000</v>
+        <v>-169.50299999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>3138.657300</v>
+        <v>3138.6572999999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>0.871849</v>
+        <v>0.87184899999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1359.680000</v>
+        <v>1359.68</v>
       </c>
       <c r="AH17" s="1">
-        <v>-179.421000</v>
+        <v>-179.42099999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>3148.891719</v>
+        <v>3148.8917190000002</v>
       </c>
       <c r="AK17" s="1">
-        <v>0.874692</v>
+        <v>0.87469200000000003</v>
       </c>
       <c r="AL17" s="1">
-        <v>1380.340000</v>
+        <v>1380.34</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.455000</v>
+        <v>-209.45500000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>3159.749146</v>
+        <v>3159.7491460000001</v>
       </c>
       <c r="AP17" s="1">
-        <v>0.877708</v>
+        <v>0.87770800000000004</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1401.790000</v>
+        <v>1401.79</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.555000</v>
+        <v>-253.55500000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>3170.449869</v>
       </c>
       <c r="AU17" s="1">
-        <v>0.880681</v>
+        <v>0.88068100000000005</v>
       </c>
       <c r="AV17" s="1">
-        <v>1426.150000</v>
+        <v>1426.15</v>
       </c>
       <c r="AW17" s="1">
-        <v>-313.974000</v>
+        <v>-313.97399999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>3181.482843</v>
+        <v>3181.4828429999998</v>
       </c>
       <c r="AZ17" s="1">
         <v>0.883745</v>
       </c>
       <c r="BA17" s="1">
-        <v>1445.200000</v>
+        <v>1445.2</v>
       </c>
       <c r="BB17" s="1">
-        <v>-366.553000</v>
+        <v>-366.553</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>3192.381437</v>
       </c>
       <c r="BE17" s="1">
-        <v>0.886773</v>
+        <v>0.88677300000000003</v>
       </c>
       <c r="BF17" s="1">
-        <v>1528.720000</v>
+        <v>1528.72</v>
       </c>
       <c r="BG17" s="1">
-        <v>-618.010000</v>
+        <v>-618.01</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>3203.379262</v>
+        <v>3203.3792619999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>0.889828</v>
+        <v>0.88982799999999995</v>
       </c>
       <c r="BK17" s="1">
-        <v>1679.880000</v>
+        <v>1679.88</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1071.590000</v>
+        <v>-1071.5899999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>3214.219296</v>
+        <v>3214.2192960000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>0.892839</v>
+        <v>0.89283900000000005</v>
       </c>
       <c r="BP17" s="1">
-        <v>1970.520000</v>
+        <v>1970.52</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1862.740000</v>
+        <v>-1862.74</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>3224.831202</v>
+        <v>3224.8312019999998</v>
       </c>
       <c r="BT17" s="1">
-        <v>0.895786</v>
+        <v>0.89578599999999997</v>
       </c>
       <c r="BU17" s="1">
-        <v>2354.420000</v>
+        <v>2354.42</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2781.040000</v>
+        <v>-2781.04</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>3236.037813</v>
+        <v>3236.0378129999999</v>
       </c>
       <c r="BY17" s="1">
         <v>0.898899</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2841.030000</v>
+        <v>2841.03</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3787.150000</v>
+        <v>-3787.15</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>3248.927347</v>
+        <v>3248.9273469999998</v>
       </c>
       <c r="CD17" s="1">
-        <v>0.902480</v>
+        <v>0.90247999999999995</v>
       </c>
       <c r="CE17" s="1">
-        <v>4267.030000</v>
+        <v>4267.03</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6232.710000</v>
+        <v>-6232.71</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>3076.096406</v>
+        <v>3076.0964060000001</v>
       </c>
       <c r="B18" s="1">
-        <v>0.854471</v>
+        <v>0.85447099999999998</v>
       </c>
       <c r="C18" s="1">
-        <v>1242.460000</v>
+        <v>1242.46</v>
       </c>
       <c r="D18" s="1">
-        <v>-306.437000</v>
+        <v>-306.43700000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>3086.476153</v>
+        <v>3086.4761530000001</v>
       </c>
       <c r="G18" s="1">
-        <v>0.857354</v>
+        <v>0.85735399999999995</v>
       </c>
       <c r="H18" s="1">
-        <v>1267.880000</v>
+        <v>1267.8800000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-264.364000</v>
+        <v>-264.36399999999998</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>3096.906028</v>
+        <v>3096.9060279999999</v>
       </c>
       <c r="L18" s="1">
-        <v>0.860252</v>
+        <v>0.86025200000000002</v>
       </c>
       <c r="M18" s="1">
-        <v>1304.350000</v>
+        <v>1304.3499999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-203.013000</v>
+        <v>-203.01300000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>3107.444525</v>
+        <v>3107.4445249999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>0.863179</v>
+        <v>0.86317900000000003</v>
       </c>
       <c r="R18" s="1">
-        <v>1316.270000</v>
+        <v>1316.27</v>
       </c>
       <c r="S18" s="1">
-        <v>-184.892000</v>
+        <v>-184.892</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>3117.986001</v>
+        <v>3117.9860010000002</v>
       </c>
       <c r="V18" s="1">
-        <v>0.866107</v>
+        <v>0.86610699999999996</v>
       </c>
       <c r="W18" s="1">
-        <v>1329.550000</v>
+        <v>1329.55</v>
       </c>
       <c r="X18" s="1">
-        <v>-171.340000</v>
+        <v>-171.34</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>3128.442194</v>
+        <v>3128.4421940000002</v>
       </c>
       <c r="AA18" s="1">
-        <v>0.869012</v>
+        <v>0.86901200000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>1346.700000</v>
+        <v>1346.7</v>
       </c>
       <c r="AC18" s="1">
-        <v>-169.354000</v>
+        <v>-169.35400000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>3138.955459</v>
+        <v>3138.9554589999998</v>
       </c>
       <c r="AF18" s="1">
-        <v>0.871932</v>
+        <v>0.87193200000000004</v>
       </c>
       <c r="AG18" s="1">
-        <v>1359.670000</v>
+        <v>1359.67</v>
       </c>
       <c r="AH18" s="1">
-        <v>-179.520000</v>
+        <v>-179.52</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>3149.240407</v>
+        <v>3149.2404069999998</v>
       </c>
       <c r="AK18" s="1">
-        <v>0.874789</v>
+        <v>0.87478900000000004</v>
       </c>
       <c r="AL18" s="1">
-        <v>1380.320000</v>
+        <v>1380.32</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.491000</v>
+        <v>-209.49100000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>3160.108247</v>
+        <v>3160.1082470000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>0.877808</v>
+        <v>0.87780800000000003</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1401.820000</v>
+        <v>1401.82</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.538000</v>
+        <v>-253.53800000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>3170.813436</v>
+        <v>3170.8134359999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>0.880782</v>
+        <v>0.88078199999999995</v>
       </c>
       <c r="AV18" s="1">
-        <v>1426.130000</v>
+        <v>1426.13</v>
       </c>
       <c r="AW18" s="1">
-        <v>-313.977000</v>
+        <v>-313.97699999999998</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>3182.200058</v>
+        <v>3182.2000579999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>0.883944</v>
+        <v>0.88394399999999995</v>
       </c>
       <c r="BA18" s="1">
-        <v>1445.130000</v>
+        <v>1445.13</v>
       </c>
       <c r="BB18" s="1">
-        <v>-366.574000</v>
+        <v>-366.57400000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>3192.832798</v>
+        <v>3192.8327979999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>0.886898</v>
+        <v>0.88689799999999996</v>
       </c>
       <c r="BF18" s="1">
-        <v>1528.700000</v>
+        <v>1528.7</v>
       </c>
       <c r="BG18" s="1">
-        <v>-617.955000</v>
+        <v>-617.95500000000004</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>3203.752754</v>
+        <v>3203.7527540000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>0.889931</v>
+        <v>0.88993100000000003</v>
       </c>
       <c r="BK18" s="1">
-        <v>1679.870000</v>
+        <v>1679.87</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1071.590000</v>
+        <v>-1071.5899999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>3214.641423</v>
       </c>
       <c r="BO18" s="1">
-        <v>0.892956</v>
+        <v>0.89295599999999997</v>
       </c>
       <c r="BP18" s="1">
-        <v>1970.530000</v>
+        <v>1970.53</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1862.650000</v>
+        <v>-1862.65</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>3225.272182</v>
+        <v>3225.2721820000002</v>
       </c>
       <c r="BT18" s="1">
-        <v>0.895909</v>
+        <v>0.89590899999999996</v>
       </c>
       <c r="BU18" s="1">
-        <v>2353.770000</v>
+        <v>2353.77</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2780.890000</v>
+        <v>-2780.89</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>3236.757041</v>
+        <v>3236.7570409999998</v>
       </c>
       <c r="BY18" s="1">
-        <v>0.899099</v>
+        <v>0.89909899999999998</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2840.820000</v>
+        <v>2840.82</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3787.470000</v>
+        <v>-3787.47</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>3249.159474</v>
       </c>
       <c r="CD18" s="1">
-        <v>0.902544</v>
+        <v>0.90254400000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>4268.860000</v>
+        <v>4268.8599999999997</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6230.750000</v>
+        <v>-6230.75</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>3076.434684</v>
+        <v>3076.4346839999998</v>
       </c>
       <c r="B19" s="1">
-        <v>0.854565</v>
+        <v>0.85456500000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>1242.390000</v>
+        <v>1242.3900000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-306.331000</v>
+        <v>-306.33100000000002</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>3086.819880</v>
+        <v>3086.81988</v>
       </c>
       <c r="G19" s="1">
-        <v>0.857450</v>
+        <v>0.85745000000000005</v>
       </c>
       <c r="H19" s="1">
-        <v>1268.450000</v>
+        <v>1268.45</v>
       </c>
       <c r="I19" s="1">
-        <v>-264.819000</v>
+        <v>-264.81900000000002</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>3097.320683</v>
+        <v>3097.3206829999999</v>
       </c>
       <c r="L19" s="1">
-        <v>0.860367</v>
+        <v>0.86036699999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>1304.420000</v>
+        <v>1304.42</v>
       </c>
       <c r="N19" s="1">
-        <v>-203.128000</v>
+        <v>-203.12799999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>3107.861660</v>
+        <v>3107.86166</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.863295</v>
+        <v>0.86329500000000003</v>
       </c>
       <c r="R19" s="1">
-        <v>1316.290000</v>
+        <v>1316.29</v>
       </c>
       <c r="S19" s="1">
-        <v>-184.913000</v>
+        <v>-184.91300000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>3118.267727</v>
+        <v>3118.2677269999999</v>
       </c>
       <c r="V19" s="1">
-        <v>0.866185</v>
+        <v>0.86618499999999998</v>
       </c>
       <c r="W19" s="1">
-        <v>1329.490000</v>
+        <v>1329.49</v>
       </c>
       <c r="X19" s="1">
-        <v>-171.443000</v>
+        <v>-171.44300000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>3128.793329</v>
+        <v>3128.7933290000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>0.869109</v>
+        <v>0.86910900000000002</v>
       </c>
       <c r="AB19" s="1">
-        <v>1346.960000</v>
+        <v>1346.96</v>
       </c>
       <c r="AC19" s="1">
-        <v>-169.485000</v>
+        <v>-169.48500000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>3139.298100</v>
+        <v>3139.2981</v>
       </c>
       <c r="AF19" s="1">
         <v>0.872027</v>
       </c>
       <c r="AG19" s="1">
-        <v>1359.760000</v>
+        <v>1359.76</v>
       </c>
       <c r="AH19" s="1">
-        <v>-179.472000</v>
+        <v>-179.47200000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>3149.590583</v>
+        <v>3149.5905830000002</v>
       </c>
       <c r="AK19" s="1">
-        <v>0.874886</v>
+        <v>0.87488600000000005</v>
       </c>
       <c r="AL19" s="1">
-        <v>1380.320000</v>
+        <v>1380.32</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.501000</v>
+        <v>-209.501</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>3160.826486</v>
+        <v>3160.8264859999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>0.878007</v>
+        <v>0.87800699999999998</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1401.860000</v>
+        <v>1401.86</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.536000</v>
+        <v>-253.536</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>3171.542057</v>
+        <v>3171.5420570000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>0.880984</v>
+        <v>0.88098399999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1426.090000</v>
+        <v>1426.09</v>
       </c>
       <c r="AW19" s="1">
-        <v>-314.013000</v>
+        <v>-314.01299999999998</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>3182.559162</v>
       </c>
       <c r="AZ19" s="1">
-        <v>0.884044</v>
+        <v>0.88404400000000005</v>
       </c>
       <c r="BA19" s="1">
-        <v>1445.190000</v>
+        <v>1445.19</v>
       </c>
       <c r="BB19" s="1">
-        <v>-366.603000</v>
+        <v>-366.60300000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>3193.192892</v>
       </c>
       <c r="BE19" s="1">
-        <v>0.886998</v>
+        <v>0.88699799999999995</v>
       </c>
       <c r="BF19" s="1">
-        <v>1528.680000</v>
+        <v>1528.68</v>
       </c>
       <c r="BG19" s="1">
-        <v>-617.984000</v>
+        <v>-617.98400000000004</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>3204.130207</v>
+        <v>3204.1302070000002</v>
       </c>
       <c r="BJ19" s="1">
-        <v>0.890036</v>
+        <v>0.89003600000000005</v>
       </c>
       <c r="BK19" s="1">
-        <v>1679.910000</v>
+        <v>1679.91</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1071.550000</v>
+        <v>-1071.55</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>3215.342734</v>
+        <v>3215.3427339999998</v>
       </c>
       <c r="BO19" s="1">
-        <v>0.893151</v>
+        <v>0.89315100000000003</v>
       </c>
       <c r="BP19" s="1">
-        <v>1970.540000</v>
+        <v>1970.54</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1862.580000</v>
+        <v>-1862.58</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>3226.059830</v>
+        <v>3226.0598300000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>0.896128</v>
+        <v>0.89612800000000004</v>
       </c>
       <c r="BU19" s="1">
-        <v>2354.140000</v>
+        <v>2354.14</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2779.720000</v>
+        <v>-2779.72</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>3236.886963</v>
+        <v>3236.8869629999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>0.899135</v>
+        <v>0.89913500000000002</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2840.840000</v>
+        <v>2840.84</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3786.630000</v>
+        <v>-3786.63</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>3249.679008</v>
+        <v>3249.6790080000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>0.902689</v>
+        <v>0.90268899999999996</v>
       </c>
       <c r="CE19" s="1">
-        <v>4281.350000</v>
+        <v>4281.3500000000004</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6237.730000</v>
+        <v>-6237.73</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>3076.857275</v>
+        <v>3076.8572749999998</v>
       </c>
       <c r="B20" s="1">
-        <v>0.854683</v>
+        <v>0.85468299999999997</v>
       </c>
       <c r="C20" s="1">
-        <v>1242.340000</v>
+        <v>1242.3399999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-306.307000</v>
+        <v>-306.30700000000002</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>3087.239001</v>
+        <v>3087.2390009999999</v>
       </c>
       <c r="G20" s="1">
-        <v>0.857566</v>
+        <v>0.85756600000000005</v>
       </c>
       <c r="H20" s="1">
-        <v>1268.150000</v>
+        <v>1268.1500000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-264.804000</v>
+        <v>-264.80399999999997</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>3097.617786</v>
+        <v>3097.6177859999998</v>
       </c>
       <c r="L20" s="1">
-        <v>0.860449</v>
+        <v>0.86044900000000002</v>
       </c>
       <c r="M20" s="1">
-        <v>1304.070000</v>
+        <v>1304.07</v>
       </c>
       <c r="N20" s="1">
-        <v>-203.124000</v>
+        <v>-203.124</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>3108.156322</v>
+        <v>3108.1563219999998</v>
       </c>
       <c r="Q20" s="1">
-        <v>0.863377</v>
+        <v>0.86337699999999995</v>
       </c>
       <c r="R20" s="1">
-        <v>1316.220000</v>
+        <v>1316.22</v>
       </c>
       <c r="S20" s="1">
-        <v>-184.911000</v>
+        <v>-184.911</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>3118.612944</v>
       </c>
       <c r="V20" s="1">
-        <v>0.866281</v>
+        <v>0.86628099999999997</v>
       </c>
       <c r="W20" s="1">
-        <v>1329.390000</v>
+        <v>1329.39</v>
       </c>
       <c r="X20" s="1">
-        <v>-171.428000</v>
+        <v>-171.428</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>3129.140566</v>
       </c>
       <c r="AA20" s="1">
-        <v>0.869206</v>
+        <v>0.86920600000000003</v>
       </c>
       <c r="AB20" s="1">
-        <v>1346.720000</v>
+        <v>1346.72</v>
       </c>
       <c r="AC20" s="1">
-        <v>-169.322000</v>
+        <v>-169.322</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>3139.641363</v>
+        <v>3139.6413630000002</v>
       </c>
       <c r="AF20" s="1">
-        <v>0.872123</v>
+        <v>0.87212299999999998</v>
       </c>
       <c r="AG20" s="1">
-        <v>1359.710000</v>
+        <v>1359.71</v>
       </c>
       <c r="AH20" s="1">
-        <v>-179.458000</v>
+        <v>-179.458</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>3150.287460</v>
+        <v>3150.28746</v>
       </c>
       <c r="AK20" s="1">
-        <v>0.875080</v>
+        <v>0.87507999999999997</v>
       </c>
       <c r="AL20" s="1">
-        <v>1380.320000</v>
+        <v>1380.32</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.419000</v>
+        <v>-209.41900000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>3161.188566</v>
+        <v>3161.1885659999998</v>
       </c>
       <c r="AP20" s="1">
         <v>0.878108</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1401.850000</v>
+        <v>1401.85</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.560000</v>
+        <v>-253.56</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>3171.935362</v>
+        <v>3171.9353620000002</v>
       </c>
       <c r="AU20" s="1">
-        <v>0.881093</v>
+        <v>0.88109300000000002</v>
       </c>
       <c r="AV20" s="1">
-        <v>1426.120000</v>
+        <v>1426.12</v>
       </c>
       <c r="AW20" s="1">
-        <v>-314.008000</v>
+        <v>-314.00799999999998</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>3182.915290</v>
+        <v>3182.9152899999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>0.884143</v>
+        <v>0.88414300000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1445.150000</v>
+        <v>1445.15</v>
       </c>
       <c r="BB20" s="1">
-        <v>-366.577000</v>
+        <v>-366.577</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>3193.852572</v>
+        <v>3193.8525719999998</v>
       </c>
       <c r="BE20" s="1">
         <v>0.887181</v>
       </c>
       <c r="BF20" s="1">
-        <v>1528.690000</v>
+        <v>1528.69</v>
       </c>
       <c r="BG20" s="1">
-        <v>-617.952000</v>
+        <v>-617.952</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>3204.811180</v>
+        <v>3204.8111800000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>0.890225</v>
+        <v>0.89022500000000004</v>
       </c>
       <c r="BK20" s="1">
-        <v>1679.920000</v>
+        <v>1679.92</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1071.520000</v>
+        <v>-1071.52</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>3215.457311</v>
+        <v>3215.4573110000001</v>
       </c>
       <c r="BO20" s="1">
-        <v>0.893183</v>
+        <v>0.89318299999999995</v>
       </c>
       <c r="BP20" s="1">
-        <v>1970.410000</v>
+        <v>1970.41</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1862.520000</v>
+        <v>-1862.52</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>3226.523551</v>
+        <v>3226.5235510000002</v>
       </c>
       <c r="BT20" s="1">
-        <v>0.896257</v>
+        <v>0.89625699999999997</v>
       </c>
       <c r="BU20" s="1">
-        <v>2354.020000</v>
+        <v>2354.02</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2779.400000</v>
+        <v>-2779.4</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>3237.333858</v>
       </c>
       <c r="BY20" s="1">
-        <v>0.899259</v>
+        <v>0.89925900000000003</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2841.360000</v>
+        <v>2841.36</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3787.550000</v>
+        <v>-3787.55</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>3250.196640</v>
+        <v>3250.1966400000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>0.902832</v>
+        <v>0.90283199999999997</v>
       </c>
       <c r="CE20" s="1">
-        <v>4286.700000</v>
+        <v>4286.7</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6224.050000</v>
+        <v>-6224.05</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>3077.133541</v>
+        <v>3077.1335410000002</v>
       </c>
       <c r="B21" s="1">
-        <v>0.854759</v>
+        <v>0.85475900000000005</v>
       </c>
       <c r="C21" s="1">
-        <v>1242.460000</v>
+        <v>1242.46</v>
       </c>
       <c r="D21" s="1">
-        <v>-306.590000</v>
+        <v>-306.58999999999997</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>3087.516295</v>
+        <v>3087.5162949999999</v>
       </c>
       <c r="G21" s="1">
-        <v>0.857643</v>
+        <v>0.85764300000000004</v>
       </c>
       <c r="H21" s="1">
-        <v>1268.260000</v>
+        <v>1268.26</v>
       </c>
       <c r="I21" s="1">
-        <v>-265.190000</v>
+        <v>-265.19</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>3097.965978</v>
+        <v>3097.9659780000002</v>
       </c>
       <c r="L21" s="1">
-        <v>0.860546</v>
+        <v>0.86054600000000003</v>
       </c>
       <c r="M21" s="1">
-        <v>1304.310000</v>
+        <v>1304.31</v>
       </c>
       <c r="N21" s="1">
-        <v>-202.873000</v>
+        <v>-202.87299999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>3108.501997</v>
+        <v>3108.5019969999998</v>
       </c>
       <c r="Q21" s="1">
-        <v>0.863473</v>
+        <v>0.86347300000000005</v>
       </c>
       <c r="R21" s="1">
-        <v>1316.230000</v>
+        <v>1316.23</v>
       </c>
       <c r="S21" s="1">
-        <v>-184.839000</v>
+        <v>-184.839</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>3118.958158</v>
+        <v>3118.9581579999999</v>
       </c>
       <c r="V21" s="1">
-        <v>0.866377</v>
+        <v>0.86637699999999995</v>
       </c>
       <c r="W21" s="1">
-        <v>1329.550000</v>
+        <v>1329.55</v>
       </c>
       <c r="X21" s="1">
-        <v>-171.405000</v>
+        <v>-171.405</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>3129.836913</v>
+        <v>3129.8369130000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>0.869399</v>
+        <v>0.86939900000000003</v>
       </c>
       <c r="AB21" s="1">
-        <v>1346.770000</v>
+        <v>1346.77</v>
       </c>
       <c r="AC21" s="1">
-        <v>-169.255000</v>
+        <v>-169.255</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>3140.328317</v>
       </c>
       <c r="AF21" s="1">
-        <v>0.872313</v>
+        <v>0.87231300000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1359.790000</v>
+        <v>1359.79</v>
       </c>
       <c r="AH21" s="1">
-        <v>-179.421000</v>
+        <v>-179.42099999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>3150.634203</v>
+        <v>3150.6342030000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>0.875176</v>
+        <v>0.87517599999999995</v>
       </c>
       <c r="AL21" s="1">
-        <v>1380.340000</v>
+        <v>1380.34</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.444000</v>
+        <v>-209.44399999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>3161.549623</v>
+        <v>3161.5496229999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>0.878208</v>
+        <v>0.87820799999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1401.820000</v>
+        <v>1401.82</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.559000</v>
+        <v>-253.559</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>3172.299943</v>
       </c>
       <c r="AU21" s="1">
-        <v>0.881194</v>
+        <v>0.88119400000000003</v>
       </c>
       <c r="AV21" s="1">
-        <v>1426.100000</v>
+        <v>1426.1</v>
       </c>
       <c r="AW21" s="1">
-        <v>-313.978000</v>
+        <v>-313.97800000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>3183.578937</v>
+        <v>3183.5789370000002</v>
       </c>
       <c r="AZ21" s="1">
-        <v>0.884327</v>
+        <v>0.88432699999999997</v>
       </c>
       <c r="BA21" s="1">
-        <v>1445.150000</v>
+        <v>1445.15</v>
       </c>
       <c r="BB21" s="1">
-        <v>-366.564000</v>
+        <v>-366.56400000000002</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>3194.304426</v>
+        <v>3194.3044260000001</v>
       </c>
       <c r="BE21" s="1">
-        <v>0.887307</v>
+        <v>0.88730699999999996</v>
       </c>
       <c r="BF21" s="1">
-        <v>1528.710000</v>
+        <v>1528.71</v>
       </c>
       <c r="BG21" s="1">
-        <v>-617.960000</v>
+        <v>-617.96</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>3204.918333</v>
+        <v>3204.9183330000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>0.890255</v>
+        <v>0.89025500000000002</v>
       </c>
       <c r="BK21" s="1">
-        <v>1679.900000</v>
+        <v>1679.9</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1071.570000</v>
+        <v>-1071.57</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>3215.882879</v>
+        <v>3215.8828789999998</v>
       </c>
       <c r="BO21" s="1">
-        <v>0.893301</v>
+        <v>0.89330100000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1970.470000</v>
+        <v>1970.47</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1862.670000</v>
+        <v>-1862.67</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>3226.953087</v>
+        <v>3226.9530869999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>0.896376</v>
+        <v>0.89637599999999995</v>
       </c>
       <c r="BU21" s="1">
-        <v>2354.480000</v>
+        <v>2354.48</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2779.110000</v>
+        <v>-2779.11</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>3237.768353</v>
+        <v>3237.7683529999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>0.899380</v>
+        <v>0.89937999999999996</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2841.530000</v>
+        <v>2841.53</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3786.640000</v>
+        <v>-3786.64</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>3250.710960</v>
+        <v>3250.7109599999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>0.902975</v>
+        <v>0.90297499999999997</v>
       </c>
       <c r="CE21" s="1">
-        <v>4271.180000</v>
+        <v>4271.18</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6218.630000</v>
+        <v>-6218.63</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>3077.476245</v>
+        <v>3077.4762449999998</v>
       </c>
       <c r="B22" s="1">
-        <v>0.854855</v>
+        <v>0.85485500000000003</v>
       </c>
       <c r="C22" s="1">
-        <v>1242.240000</v>
+        <v>1242.24</v>
       </c>
       <c r="D22" s="1">
-        <v>-306.183000</v>
+        <v>-306.18299999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>3087.860984</v>
+        <v>3087.8609839999999</v>
       </c>
       <c r="G22" s="1">
-        <v>0.857739</v>
+        <v>0.85773900000000003</v>
       </c>
       <c r="H22" s="1">
-        <v>1268.540000</v>
+        <v>1268.54</v>
       </c>
       <c r="I22" s="1">
-        <v>-265.025000</v>
+        <v>-265.02499999999998</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>3098.311193</v>
       </c>
       <c r="L22" s="1">
-        <v>0.860642</v>
+        <v>0.86064200000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>1304.500000</v>
+        <v>1304.5</v>
       </c>
       <c r="N22" s="1">
-        <v>-202.818000</v>
+        <v>-202.81800000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>3109.185483</v>
+        <v>3109.1854830000002</v>
       </c>
       <c r="Q22" s="1">
-        <v>0.863663</v>
+        <v>0.86366299999999996</v>
       </c>
       <c r="R22" s="1">
-        <v>1316.340000</v>
+        <v>1316.34</v>
       </c>
       <c r="S22" s="1">
-        <v>-184.805000</v>
+        <v>-184.80500000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>3119.648093</v>
+        <v>3119.6480929999998</v>
       </c>
       <c r="V22" s="1">
-        <v>0.866569</v>
+        <v>0.86656900000000003</v>
       </c>
       <c r="W22" s="1">
-        <v>1329.500000</v>
+        <v>1329.5</v>
       </c>
       <c r="X22" s="1">
-        <v>-171.350000</v>
+        <v>-171.35</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>3130.187616</v>
+        <v>3130.1876160000002</v>
       </c>
       <c r="AA22" s="1">
-        <v>0.869497</v>
+        <v>0.86949699999999996</v>
       </c>
       <c r="AB22" s="1">
-        <v>1346.900000</v>
+        <v>1346.9</v>
       </c>
       <c r="AC22" s="1">
-        <v>-169.275000</v>
+        <v>-169.27500000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>3140.672018</v>
+        <v>3140.6720180000002</v>
       </c>
       <c r="AF22" s="1">
-        <v>0.872409</v>
+        <v>0.87240899999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1359.700000</v>
+        <v>1359.7</v>
       </c>
       <c r="AH22" s="1">
-        <v>-179.403000</v>
+        <v>-179.40299999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>3150.982356</v>
       </c>
       <c r="AK22" s="1">
-        <v>0.875273</v>
+        <v>0.87527299999999997</v>
       </c>
       <c r="AL22" s="1">
-        <v>1380.310000</v>
+        <v>1380.31</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.443000</v>
+        <v>-209.44300000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>3162.225668</v>
       </c>
       <c r="AP22" s="1">
-        <v>0.878396</v>
+        <v>0.87839599999999995</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1401.840000</v>
+        <v>1401.84</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.564000</v>
+        <v>-253.56399999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>3172.972023</v>
+        <v>3172.9720229999998</v>
       </c>
       <c r="AU22" s="1">
-        <v>0.881381</v>
+        <v>0.88138099999999997</v>
       </c>
       <c r="AV22" s="1">
-        <v>1426.120000</v>
+        <v>1426.12</v>
       </c>
       <c r="AW22" s="1">
-        <v>-313.968000</v>
+        <v>-313.96800000000002</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>3184.024877</v>
+        <v>3184.0248769999998</v>
       </c>
       <c r="AZ22" s="1">
-        <v>0.884451</v>
+        <v>0.88445099999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1445.170000</v>
+        <v>1445.17</v>
       </c>
       <c r="BB22" s="1">
-        <v>-366.552000</v>
+        <v>-366.55200000000002</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>3194.663530</v>
+        <v>3194.6635299999998</v>
       </c>
       <c r="BE22" s="1">
-        <v>0.887407</v>
+        <v>0.88740699999999995</v>
       </c>
       <c r="BF22" s="1">
-        <v>1528.690000</v>
+        <v>1528.69</v>
       </c>
       <c r="BG22" s="1">
-        <v>-617.956000</v>
+        <v>-617.95600000000002</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>3205.283868</v>
       </c>
       <c r="BJ22" s="1">
-        <v>0.890357</v>
+        <v>0.89035699999999995</v>
       </c>
       <c r="BK22" s="1">
-        <v>1679.930000</v>
+        <v>1679.93</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1071.530000</v>
+        <v>-1071.53</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>3216.280701</v>
+        <v>3216.2807010000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>0.893411</v>
+        <v>0.89341099999999996</v>
       </c>
       <c r="BP22" s="1">
-        <v>1970.500000</v>
+        <v>1970.5</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1862.580000</v>
+        <v>-1862.58</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>3227.366292</v>
+        <v>3227.3662920000002</v>
       </c>
       <c r="BT22" s="1">
-        <v>0.896491</v>
+        <v>0.89649100000000004</v>
       </c>
       <c r="BU22" s="1">
-        <v>2354.510000</v>
+        <v>2354.5100000000002</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2778.550000</v>
+        <v>-2778.55</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>3238.188960</v>
+        <v>3238.18896</v>
       </c>
       <c r="BY22" s="1">
-        <v>0.899497</v>
+        <v>0.89949699999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2841.260000</v>
+        <v>2841.26</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3787.030000</v>
+        <v>-3787.03</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>3251.233247</v>
+        <v>3251.2332470000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>0.903120</v>
+        <v>0.90312000000000003</v>
       </c>
       <c r="CE22" s="1">
-        <v>4286.080000</v>
+        <v>4286.08</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6238.740000</v>
+        <v>-6238.74</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>3077.819478</v>
+        <v>3077.8194779999999</v>
       </c>
       <c r="B23" s="1">
-        <v>0.854950</v>
+        <v>0.85494999999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1242.160000</v>
+        <v>1242.1600000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-306.688000</v>
+        <v>-306.68799999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>3088.208715</v>
+        <v>3088.2087150000002</v>
       </c>
       <c r="G23" s="1">
-        <v>0.857836</v>
+        <v>0.85783600000000004</v>
       </c>
       <c r="H23" s="1">
-        <v>1268.150000</v>
+        <v>1268.1500000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-265.076000</v>
+        <v>-265.07600000000002</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>3099.004601</v>
+        <v>3099.0046010000001</v>
       </c>
       <c r="L23" s="1">
-        <v>0.860835</v>
+        <v>0.86083500000000002</v>
       </c>
       <c r="M23" s="1">
-        <v>1304.260000</v>
+        <v>1304.26</v>
       </c>
       <c r="N23" s="1">
-        <v>-203.000000</v>
+        <v>-203</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>3109.549579</v>
       </c>
       <c r="Q23" s="1">
-        <v>0.863764</v>
+        <v>0.86376399999999998</v>
       </c>
       <c r="R23" s="1">
-        <v>1316.350000</v>
+        <v>1316.35</v>
       </c>
       <c r="S23" s="1">
-        <v>-184.890000</v>
+        <v>-184.89</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>3119.992316</v>
+        <v>3119.9923159999998</v>
       </c>
       <c r="V23" s="1">
-        <v>0.866665</v>
+        <v>0.86666500000000002</v>
       </c>
       <c r="W23" s="1">
-        <v>1329.440000</v>
+        <v>1329.44</v>
       </c>
       <c r="X23" s="1">
-        <v>-171.490000</v>
+        <v>-171.49</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>3130.536767</v>
+        <v>3130.5367670000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>0.869594</v>
+        <v>0.86959399999999998</v>
       </c>
       <c r="AB23" s="1">
-        <v>1346.710000</v>
+        <v>1346.71</v>
       </c>
       <c r="AC23" s="1">
-        <v>-169.579000</v>
+        <v>-169.57900000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>3141.017729</v>
+        <v>3141.0177290000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>0.872505</v>
+        <v>0.87250499999999998</v>
       </c>
       <c r="AG23" s="1">
-        <v>1359.760000</v>
+        <v>1359.76</v>
       </c>
       <c r="AH23" s="1">
-        <v>-179.443000</v>
+        <v>-179.44300000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>3151.636579</v>
       </c>
       <c r="AK23" s="1">
-        <v>0.875455</v>
+        <v>0.87545499999999998</v>
       </c>
       <c r="AL23" s="1">
-        <v>1380.330000</v>
+        <v>1380.33</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.467000</v>
+        <v>-209.46700000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>3162.657188</v>
+        <v>3162.6571880000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>0.878516</v>
+        <v>0.87851599999999996</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1401.840000</v>
+        <v>1401.84</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.588000</v>
+        <v>-253.58799999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>3173.427814</v>
+        <v>3173.4278140000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>0.881508</v>
+        <v>0.88150799999999996</v>
       </c>
       <c r="AV23" s="1">
-        <v>1426.140000</v>
+        <v>1426.14</v>
       </c>
       <c r="AW23" s="1">
-        <v>-313.999000</v>
+        <v>-313.99900000000002</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>3184.383479</v>
+        <v>3184.3834790000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>0.884551</v>
+        <v>0.88455099999999998</v>
       </c>
       <c r="BA23" s="1">
-        <v>1445.140000</v>
+        <v>1445.14</v>
       </c>
       <c r="BB23" s="1">
-        <v>-366.572000</v>
+        <v>-366.572</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>3195.023627</v>
       </c>
       <c r="BE23" s="1">
-        <v>0.887507</v>
+        <v>0.88750700000000005</v>
       </c>
       <c r="BF23" s="1">
-        <v>1528.650000</v>
+        <v>1528.65</v>
       </c>
       <c r="BG23" s="1">
-        <v>-617.973000</v>
+        <v>-617.97299999999996</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>3205.657356</v>
+        <v>3205.6573560000002</v>
       </c>
       <c r="BJ23" s="1">
-        <v>0.890460</v>
+        <v>0.89046000000000003</v>
       </c>
       <c r="BK23" s="1">
-        <v>1679.810000</v>
+        <v>1679.81</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1071.500000</v>
+        <v>-1071.5</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>3216.699294</v>
       </c>
       <c r="BO23" s="1">
-        <v>0.893528</v>
+        <v>0.89352799999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1970.500000</v>
+        <v>1970.5</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1862.560000</v>
+        <v>-1862.56</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>3227.792814</v>
+        <v>3227.7928139999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>0.896609</v>
+        <v>0.89660899999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>2354.750000</v>
+        <v>2354.75</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2778.440000</v>
+        <v>-2778.44</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>3238.612544</v>
+        <v>3238.6125440000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>0.899615</v>
+        <v>0.89961500000000005</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2840.730000</v>
+        <v>2840.73</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3786.730000</v>
+        <v>-3786.73</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>3251.769918</v>
       </c>
       <c r="CD23" s="1">
-        <v>0.903269</v>
+        <v>0.90326899999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>4274.700000</v>
+        <v>4274.7</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6216.160000</v>
+        <v>-6216.16</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>3078.500516</v>
+        <v>3078.5005160000001</v>
       </c>
       <c r="B24" s="1">
-        <v>0.855139</v>
+        <v>0.85513899999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>1242.430000</v>
+        <v>1242.43</v>
       </c>
       <c r="D24" s="1">
-        <v>-306.460000</v>
+        <v>-306.45999999999998</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>3088.900102</v>
+        <v>3088.9001020000001</v>
       </c>
       <c r="G24" s="1">
-        <v>0.858028</v>
+        <v>0.85802800000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1268.080000</v>
+        <v>1268.08</v>
       </c>
       <c r="I24" s="1">
-        <v>-264.845000</v>
+        <v>-264.84500000000003</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>3099.349320</v>
+        <v>3099.3493199999998</v>
       </c>
       <c r="L24" s="1">
-        <v>0.860930</v>
+        <v>0.86092999999999997</v>
       </c>
       <c r="M24" s="1">
-        <v>1304.190000</v>
+        <v>1304.19</v>
       </c>
       <c r="N24" s="1">
-        <v>-202.615000</v>
+        <v>-202.61500000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>3109.897274</v>
+        <v>3109.8972739999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>0.863860</v>
+        <v>0.86385999999999996</v>
       </c>
       <c r="R24" s="1">
-        <v>1316.280000</v>
+        <v>1316.28</v>
       </c>
       <c r="S24" s="1">
-        <v>-184.904000</v>
+        <v>-184.904</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>3120.341004</v>
+        <v>3120.3410039999999</v>
       </c>
       <c r="V24" s="1">
         <v>0.866761</v>
       </c>
       <c r="W24" s="1">
-        <v>1329.530000</v>
+        <v>1329.53</v>
       </c>
       <c r="X24" s="1">
-        <v>-171.475000</v>
+        <v>-171.47499999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>3131.191487</v>
+        <v>3131.1914870000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>0.869775</v>
+        <v>0.86977499999999996</v>
       </c>
       <c r="AB24" s="1">
-        <v>1346.790000</v>
+        <v>1346.79</v>
       </c>
       <c r="AC24" s="1">
-        <v>-169.519000</v>
+        <v>-169.51900000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>3141.676913</v>
+        <v>3141.6769129999998</v>
       </c>
       <c r="AF24" s="1">
-        <v>0.872688</v>
+        <v>0.87268800000000002</v>
       </c>
       <c r="AG24" s="1">
-        <v>1359.730000</v>
+        <v>1359.73</v>
       </c>
       <c r="AH24" s="1">
-        <v>-179.400000</v>
+        <v>-179.4</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>3152.027426</v>
+        <v>3152.0274260000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>0.875563</v>
+        <v>0.87556299999999998</v>
       </c>
       <c r="AL24" s="1">
-        <v>1380.350000</v>
+        <v>1380.35</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.451000</v>
+        <v>-209.45099999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>3163.017284</v>
       </c>
       <c r="AP24" s="1">
-        <v>0.878616</v>
+        <v>0.87861599999999995</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1401.840000</v>
+        <v>1401.84</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.540000</v>
+        <v>-253.54</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>3173.790390</v>
+        <v>3173.7903900000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>0.881608</v>
+        <v>0.88160799999999995</v>
       </c>
       <c r="AV24" s="1">
-        <v>1426.130000</v>
+        <v>1426.13</v>
       </c>
       <c r="AW24" s="1">
-        <v>-313.972000</v>
+        <v>-313.97199999999998</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>3184.742551</v>
+        <v>3184.7425509999998</v>
       </c>
       <c r="AZ24" s="1">
-        <v>0.884651</v>
+        <v>0.88465099999999997</v>
       </c>
       <c r="BA24" s="1">
-        <v>1445.110000</v>
+        <v>1445.11</v>
       </c>
       <c r="BB24" s="1">
-        <v>-366.571000</v>
+        <v>-366.57100000000003</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>3195.437817</v>
       </c>
       <c r="BE24" s="1">
-        <v>0.887622</v>
+        <v>0.88762200000000002</v>
       </c>
       <c r="BF24" s="1">
-        <v>1528.710000</v>
+        <v>1528.71</v>
       </c>
       <c r="BG24" s="1">
-        <v>-618.000000</v>
+        <v>-618</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>3206.073996</v>
+        <v>3206.0739960000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>0.890576</v>
+        <v>0.89057600000000003</v>
       </c>
       <c r="BK24" s="1">
-        <v>1679.870000</v>
+        <v>1679.87</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1071.460000</v>
+        <v>-1071.46</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>3217.098644</v>
+        <v>3217.0986440000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>0.893639</v>
+        <v>0.89363899999999996</v>
       </c>
       <c r="BP24" s="1">
-        <v>1970.450000</v>
+        <v>1970.45</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1862.510000</v>
+        <v>-1862.51</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>3228.196574</v>
+        <v>3228.1965740000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>0.896721</v>
+        <v>0.89672099999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>2355.230000</v>
+        <v>2355.23</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2777.980000</v>
+        <v>-2777.98</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>3239.036127</v>
+        <v>3239.0361269999999</v>
       </c>
       <c r="BY24" s="1">
-        <v>0.899732</v>
+        <v>0.89973199999999998</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2840.760000</v>
+        <v>2840.76</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3787.600000</v>
+        <v>-3787.6</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>3252.309566</v>
+        <v>3252.3095659999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>0.903419</v>
+        <v>0.90341899999999997</v>
       </c>
       <c r="CE24" s="1">
-        <v>4274.430000</v>
+        <v>4274.43</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6238.840000</v>
+        <v>-6238.84</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>3078.844214</v>
+        <v>3078.8442140000002</v>
       </c>
       <c r="B25" s="1">
-        <v>0.855235</v>
+        <v>0.85523499999999997</v>
       </c>
       <c r="C25" s="1">
-        <v>1242.460000</v>
+        <v>1242.46</v>
       </c>
       <c r="D25" s="1">
-        <v>-306.955000</v>
+        <v>-306.95499999999998</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>3089.245813</v>
@@ -6407,285 +6823,285 @@
         <v>0.858124</v>
       </c>
       <c r="H25" s="1">
-        <v>1268.500000</v>
+        <v>1268.5</v>
       </c>
       <c r="I25" s="1">
-        <v>-264.944000</v>
+        <v>-264.94400000000002</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>3099.695031</v>
+        <v>3099.6950310000002</v>
       </c>
       <c r="L25" s="1">
-        <v>0.861026</v>
+        <v>0.86102599999999996</v>
       </c>
       <c r="M25" s="1">
-        <v>1304.120000</v>
+        <v>1304.1199999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-203.092000</v>
+        <v>-203.09200000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>3110.546542</v>
       </c>
       <c r="Q25" s="1">
-        <v>0.864041</v>
+        <v>0.86404099999999995</v>
       </c>
       <c r="R25" s="1">
-        <v>1316.210000</v>
+        <v>1316.21</v>
       </c>
       <c r="S25" s="1">
-        <v>-184.855000</v>
+        <v>-184.85499999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>3120.989303</v>
+        <v>3120.9893029999998</v>
       </c>
       <c r="V25" s="1">
-        <v>0.866941</v>
+        <v>0.86694099999999996</v>
       </c>
       <c r="W25" s="1">
-        <v>1329.540000</v>
+        <v>1329.54</v>
       </c>
       <c r="X25" s="1">
-        <v>-171.278000</v>
+        <v>-171.27799999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>3131.580349</v>
+        <v>3131.5803489999998</v>
       </c>
       <c r="AA25" s="1">
-        <v>0.869883</v>
+        <v>0.86988299999999996</v>
       </c>
       <c r="AB25" s="1">
-        <v>1346.720000</v>
+        <v>1346.72</v>
       </c>
       <c r="AC25" s="1">
-        <v>-169.276000</v>
+        <v>-169.27600000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>3142.055193</v>
+        <v>3142.0551930000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>0.872793</v>
+        <v>0.87279300000000004</v>
       </c>
       <c r="AG25" s="1">
-        <v>1359.650000</v>
+        <v>1359.65</v>
       </c>
       <c r="AH25" s="1">
-        <v>-179.452000</v>
+        <v>-179.452</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>3152.375619</v>
+        <v>3152.3756189999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>0.875660</v>
+        <v>0.87565999999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1380.320000</v>
+        <v>1380.32</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.434000</v>
+        <v>-209.434</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>3163.377875</v>
+        <v>3163.3778750000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>0.878716</v>
+        <v>0.87871600000000005</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1401.840000</v>
+        <v>1401.84</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.565000</v>
+        <v>-253.565</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>3174.157461</v>
+        <v>3174.1574609999998</v>
       </c>
       <c r="AU25" s="1">
-        <v>0.881710</v>
+        <v>0.88170999999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1426.130000</v>
+        <v>1426.13</v>
       </c>
       <c r="AW25" s="1">
-        <v>-313.946000</v>
+        <v>-313.94600000000003</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>3185.160182</v>
+        <v>3185.1601820000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>0.884767</v>
+        <v>0.88476699999999997</v>
       </c>
       <c r="BA25" s="1">
-        <v>1445.110000</v>
+        <v>1445.11</v>
       </c>
       <c r="BB25" s="1">
-        <v>-366.554000</v>
+        <v>-366.55399999999997</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>3195.750536</v>
       </c>
       <c r="BE25" s="1">
-        <v>0.887708</v>
+        <v>0.88770800000000005</v>
       </c>
       <c r="BF25" s="1">
-        <v>1528.670000</v>
+        <v>1528.67</v>
       </c>
       <c r="BG25" s="1">
-        <v>-617.951000</v>
+        <v>-617.95100000000002</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>3206.408298</v>
+        <v>3206.4082979999998</v>
       </c>
       <c r="BJ25" s="1">
-        <v>0.890669</v>
+        <v>0.89066900000000004</v>
       </c>
       <c r="BK25" s="1">
-        <v>1679.910000</v>
+        <v>1679.91</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1071.540000</v>
+        <v>-1071.54</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>3217.521163</v>
+        <v>3217.5211629999999</v>
       </c>
       <c r="BO25" s="1">
-        <v>0.893756</v>
+        <v>0.89375599999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1970.480000</v>
+        <v>1970.48</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1862.530000</v>
+        <v>-1862.53</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>3228.608766</v>
+        <v>3228.6087659999998</v>
       </c>
       <c r="BT25" s="1">
-        <v>0.896836</v>
+        <v>0.89683599999999997</v>
       </c>
       <c r="BU25" s="1">
-        <v>2355.770000</v>
+        <v>2355.77</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2778.260000</v>
+        <v>-2778.26</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>3239.451813</v>
+        <v>3239.4518130000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>0.899848</v>
+        <v>0.89984799999999998</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2840.730000</v>
+        <v>2840.73</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3786.630000</v>
+        <v>-3786.63</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>3252.849252</v>
       </c>
       <c r="CD25" s="1">
-        <v>0.903569</v>
+        <v>0.90356899999999996</v>
       </c>
       <c r="CE25" s="1">
-        <v>4287.790000</v>
+        <v>4287.79</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6223.360000</v>
+        <v>-6223.36</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>3079.185459</v>
+        <v>3079.1854589999998</v>
       </c>
       <c r="B26" s="1">
-        <v>0.855329</v>
+        <v>0.85532900000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1242.650000</v>
+        <v>1242.6500000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-306.482000</v>
+        <v>-306.48200000000003</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>3089.591557</v>
+        <v>3089.5915570000002</v>
       </c>
       <c r="G26" s="1">
-        <v>0.858220</v>
+        <v>0.85821999999999998</v>
       </c>
       <c r="H26" s="1">
-        <v>1268.510000</v>
+        <v>1268.51</v>
       </c>
       <c r="I26" s="1">
-        <v>-264.907000</v>
+        <v>-264.90699999999998</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>3100.340328</v>
+        <v>3100.3403280000002</v>
       </c>
       <c r="L26" s="1">
-        <v>0.861206</v>
+        <v>0.86120600000000003</v>
       </c>
       <c r="M26" s="1">
-        <v>1304.120000</v>
+        <v>1304.1199999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-202.815000</v>
+        <v>-202.815</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>3110.941816</v>
@@ -6694,210 +7110,211 @@
         <v>0.864151</v>
       </c>
       <c r="R26" s="1">
-        <v>1316.260000</v>
+        <v>1316.26</v>
       </c>
       <c r="S26" s="1">
-        <v>-184.803000</v>
+        <v>-184.803</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>3121.368716</v>
+        <v>3121.3687159999999</v>
       </c>
       <c r="V26" s="1">
-        <v>0.867047</v>
+        <v>0.86704700000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1329.540000</v>
+        <v>1329.54</v>
       </c>
       <c r="X26" s="1">
-        <v>-171.314000</v>
+        <v>-171.31399999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>3131.929534</v>
+        <v>3131.9295339999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>0.869980</v>
+        <v>0.86997999999999998</v>
       </c>
       <c r="AB26" s="1">
-        <v>1346.490000</v>
+        <v>1346.49</v>
       </c>
       <c r="AC26" s="1">
-        <v>-169.036000</v>
+        <v>-169.036</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>3142.398597</v>
+        <v>3142.3985969999999</v>
       </c>
       <c r="AF26" s="1">
         <v>0.872888</v>
       </c>
       <c r="AG26" s="1">
-        <v>1359.740000</v>
+        <v>1359.74</v>
       </c>
       <c r="AH26" s="1">
-        <v>-179.397000</v>
+        <v>-179.39699999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>3152.725795</v>
+        <v>3152.7257949999998</v>
       </c>
       <c r="AK26" s="1">
-        <v>0.875757</v>
+        <v>0.87575700000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1380.350000</v>
+        <v>1380.35</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.442000</v>
+        <v>-209.44200000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>3163.796531</v>
       </c>
       <c r="AP26" s="1">
-        <v>0.878832</v>
+        <v>0.87883199999999995</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1401.860000</v>
+        <v>1401.86</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.563000</v>
+        <v>-253.56299999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>3174.582005</v>
+        <v>3174.5820050000002</v>
       </c>
       <c r="AU26" s="1">
-        <v>0.881828</v>
+        <v>0.88182799999999995</v>
       </c>
       <c r="AV26" s="1">
-        <v>1426.100000</v>
+        <v>1426.1</v>
       </c>
       <c r="AW26" s="1">
-        <v>-313.978000</v>
+        <v>-313.97800000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>3185.459271</v>
+        <v>3185.4592710000002</v>
       </c>
       <c r="AZ26" s="1">
-        <v>0.884850</v>
+        <v>0.88485000000000003</v>
       </c>
       <c r="BA26" s="1">
-        <v>1445.200000</v>
+        <v>1445.2</v>
       </c>
       <c r="BB26" s="1">
-        <v>-366.597000</v>
+        <v>-366.59699999999998</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>3196.109864</v>
       </c>
       <c r="BE26" s="1">
-        <v>0.887808</v>
+        <v>0.88780800000000004</v>
       </c>
       <c r="BF26" s="1">
-        <v>1528.740000</v>
+        <v>1528.74</v>
       </c>
       <c r="BG26" s="1">
-        <v>-617.939000</v>
+        <v>-617.93899999999996</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>3206.806123</v>
+        <v>3206.8061229999998</v>
       </c>
       <c r="BJ26" s="1">
-        <v>0.890779</v>
+        <v>0.89077899999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1679.890000</v>
+        <v>1679.89</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1071.500000</v>
+        <v>-1071.5</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>3217.921467</v>
+        <v>3217.9214670000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>0.893867</v>
+        <v>0.89386699999999997</v>
       </c>
       <c r="BP26" s="1">
-        <v>1970.420000</v>
+        <v>1970.42</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1862.520000</v>
+        <v>-1862.52</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>3229.033804</v>
+        <v>3229.0338040000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>0.896954</v>
+        <v>0.89695400000000003</v>
       </c>
       <c r="BU26" s="1">
-        <v>2356.110000</v>
+        <v>2356.11</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2778.070000</v>
+        <v>-2778.07</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>3239.905149</v>
+        <v>3239.9051490000002</v>
       </c>
       <c r="BY26" s="1">
-        <v>0.899974</v>
+        <v>0.89997400000000005</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2840.450000</v>
+        <v>2840.45</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3787.200000</v>
+        <v>-3787.2</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>3253.388364</v>
+        <v>3253.3883639999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>0.903719</v>
+        <v>0.90371900000000005</v>
       </c>
       <c r="CE26" s="1">
-        <v>4269.120000</v>
+        <v>4269.12</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6224.580000</v>
+        <v>-6224.58</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>